--- a/raw_data/20200818_saline/20200818_Sensor1_Test_9.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_9.xlsx
@@ -1,975 +1,1391 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8B3F3B-AF82-429F-BB64-7136E3F9205A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>7386.747355</v>
+        <v>7386.7473550000004</v>
       </c>
       <c r="B2" s="1">
-        <v>2.051874</v>
+        <v>2.0518740000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>895.641000</v>
+        <v>895.64099999999996</v>
       </c>
       <c r="D2" s="1">
-        <v>-195.723000</v>
+        <v>-195.72300000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>7397.425203</v>
+        <v>7397.4252029999998</v>
       </c>
       <c r="G2" s="1">
-        <v>2.054840</v>
+        <v>2.05484</v>
       </c>
       <c r="H2" s="1">
-        <v>913.793000</v>
+        <v>913.79300000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-166.651000</v>
+        <v>-166.65100000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>7407.898751</v>
+        <v>7407.8987509999997</v>
       </c>
       <c r="L2" s="1">
-        <v>2.057750</v>
+        <v>2.05775</v>
       </c>
       <c r="M2" s="1">
-        <v>938.408000</v>
+        <v>938.40800000000002</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.012000</v>
+        <v>-119.012</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>7418.168381</v>
+        <v>7418.1683810000004</v>
       </c>
       <c r="Q2" s="1">
-        <v>2.060602</v>
+        <v>2.0606019999999998</v>
       </c>
       <c r="R2" s="1">
-        <v>945.455000</v>
+        <v>945.45500000000004</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.794000</v>
+        <v>-102.794</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>7428.361663</v>
+        <v>7428.3616629999997</v>
       </c>
       <c r="V2" s="1">
         <v>2.063434</v>
       </c>
       <c r="W2" s="1">
-        <v>952.205000</v>
+        <v>952.20500000000004</v>
       </c>
       <c r="X2" s="1">
-        <v>-87.811800</v>
+        <v>-87.811800000000005</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>7438.478065</v>
+        <v>7438.4780650000002</v>
       </c>
       <c r="AA2" s="1">
-        <v>2.066244</v>
+        <v>2.0662440000000002</v>
       </c>
       <c r="AB2" s="1">
-        <v>959.451000</v>
+        <v>959.45100000000002</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.539500</v>
+        <v>-76.539500000000004</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>7448.726404</v>
       </c>
       <c r="AF2" s="1">
-        <v>2.069091</v>
+        <v>2.0690909999999998</v>
       </c>
       <c r="AG2" s="1">
-        <v>964.232000</v>
+        <v>964.23199999999997</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.138100</v>
+        <v>-74.138099999999994</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>7458.863142</v>
+        <v>7458.8631420000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>2.071906</v>
+        <v>2.0719059999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>971.478000</v>
+        <v>971.47799999999995</v>
       </c>
       <c r="AM2" s="1">
-        <v>-78.753900</v>
+        <v>-78.753900000000002</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>7469.084698</v>
+        <v>7469.0846979999997</v>
       </c>
       <c r="AP2" s="1">
-        <v>2.074746</v>
+        <v>2.0747460000000002</v>
       </c>
       <c r="AQ2" s="1">
-        <v>979.507000</v>
+        <v>979.50699999999995</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.074200</v>
+        <v>-90.074200000000005</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>7480.027930</v>
+        <v>7480.0279300000002</v>
       </c>
       <c r="AU2" s="1">
-        <v>2.077786</v>
+        <v>2.0777860000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>989.212000</v>
+        <v>989.21199999999999</v>
       </c>
       <c r="AW2" s="1">
-        <v>-107.406000</v>
+        <v>-107.40600000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>7491.130408</v>
       </c>
       <c r="AZ2" s="1">
-        <v>2.080870</v>
+        <v>2.08087</v>
       </c>
       <c r="BA2" s="1">
-        <v>997.294000</v>
+        <v>997.29399999999998</v>
       </c>
       <c r="BB2" s="1">
-        <v>-122.701000</v>
+        <v>-122.70099999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>7502.107373</v>
+        <v>7502.1073729999998</v>
       </c>
       <c r="BE2" s="1">
-        <v>2.083919</v>
+        <v>2.0839189999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1034.900000</v>
+        <v>1034.9000000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-193.710000</v>
+        <v>-193.71</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>7513.106164</v>
+        <v>7513.1061639999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>2.086974</v>
+        <v>2.0869740000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1099.530000</v>
+        <v>1099.53</v>
       </c>
       <c r="BL2" s="1">
-        <v>-309.884000</v>
+        <v>-309.88400000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>7524.195682</v>
+        <v>7524.1956819999996</v>
       </c>
       <c r="BO2" s="1">
-        <v>2.090054</v>
+        <v>2.0900539999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1205.050000</v>
+        <v>1205.05</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-494.557000</v>
+        <v>-494.55700000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>7535.254514</v>
+        <v>7535.2545140000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>2.093126</v>
+        <v>2.0931259999999998</v>
       </c>
       <c r="BU2" s="1">
-        <v>1325.240000</v>
+        <v>1325.24</v>
       </c>
       <c r="BV2" s="1">
-        <v>-698.270000</v>
+        <v>-698.27</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>7546.194243</v>
+        <v>7546.1942429999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>2.096165</v>
+        <v>2.0961650000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1459.960000</v>
+        <v>1459.96</v>
       </c>
       <c r="CA2" s="1">
-        <v>-915.837000</v>
+        <v>-915.83699999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>7557.055636</v>
       </c>
       <c r="CD2" s="1">
-        <v>2.099182</v>
+        <v>2.0991819999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1816.520000</v>
+        <v>1816.52</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1433.070000</v>
+        <v>-1433.07</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>7387.410965</v>
       </c>
       <c r="B3" s="1">
-        <v>2.052059</v>
+        <v>2.0520589999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>895.556000</v>
+        <v>895.55600000000004</v>
       </c>
       <c r="D3" s="1">
-        <v>-195.684000</v>
+        <v>-195.684</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>7397.856742</v>
+        <v>7397.8567419999999</v>
       </c>
       <c r="G3" s="1">
-        <v>2.054960</v>
+        <v>2.0549599999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>914.099000</v>
+        <v>914.09900000000005</v>
       </c>
       <c r="I3" s="1">
-        <v>-166.684000</v>
+        <v>-166.684</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>7408.315849</v>
+        <v>7408.3158489999996</v>
       </c>
       <c r="L3" s="1">
-        <v>2.057866</v>
+        <v>2.0578660000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>938.239000</v>
+        <v>938.23900000000003</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.943000</v>
+        <v>-118.943</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>7418.523020</v>
+        <v>7418.5230199999996</v>
       </c>
       <c r="Q3" s="1">
-        <v>2.060701</v>
+        <v>2.0607009999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>945.454000</v>
+        <v>945.45399999999995</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.813000</v>
+        <v>-102.813</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>7428.717295</v>
+        <v>7428.7172950000004</v>
       </c>
       <c r="V3" s="1">
-        <v>2.063533</v>
+        <v>2.0635330000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>952.313000</v>
+        <v>952.31299999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-87.922700</v>
+        <v>-87.922700000000006</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>7438.859985</v>
+        <v>7438.8599850000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>2.066350</v>
+        <v>2.0663499999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>959.511000</v>
+        <v>959.51099999999997</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.480600</v>
+        <v>-76.480599999999995</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>7449.137840</v>
+        <v>7449.1378400000003</v>
       </c>
       <c r="AF3" s="1">
-        <v>2.069205</v>
+        <v>2.0692050000000002</v>
       </c>
       <c r="AG3" s="1">
-        <v>964.262000</v>
+        <v>964.26199999999994</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.123100</v>
+        <v>-74.123099999999994</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>7459.273831</v>
+        <v>7459.2738310000004</v>
       </c>
       <c r="AK3" s="1">
-        <v>2.072021</v>
+        <v>2.0720209999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>971.479000</v>
+        <v>971.47900000000004</v>
       </c>
       <c r="AM3" s="1">
-        <v>-78.742400</v>
+        <v>-78.742400000000004</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>7469.523657</v>
+        <v>7469.5236569999997</v>
       </c>
       <c r="AP3" s="1">
-        <v>2.074868</v>
+        <v>2.0748679999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>979.493000</v>
+        <v>979.49300000000005</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.068000</v>
+        <v>-90.067999999999998</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>7480.393482</v>
+        <v>7480.3934820000004</v>
       </c>
       <c r="AU3" s="1">
         <v>2.077887</v>
       </c>
       <c r="AV3" s="1">
-        <v>989.208000</v>
+        <v>989.20799999999997</v>
       </c>
       <c r="AW3" s="1">
-        <v>-107.403000</v>
+        <v>-107.40300000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>7491.508332</v>
+        <v>7491.5083320000003</v>
       </c>
       <c r="AZ3" s="1">
         <v>2.080975</v>
       </c>
       <c r="BA3" s="1">
-        <v>997.306000</v>
+        <v>997.30600000000004</v>
       </c>
       <c r="BB3" s="1">
-        <v>-122.713000</v>
+        <v>-122.71299999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>7502.473389</v>
+        <v>7502.4733889999998</v>
       </c>
       <c r="BE3" s="1">
-        <v>2.084020</v>
+        <v>2.0840200000000002</v>
       </c>
       <c r="BF3" s="1">
-        <v>1034.890000</v>
+        <v>1034.8900000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-193.736000</v>
+        <v>-193.73599999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>7513.484574</v>
+        <v>7513.4845740000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>2.087079</v>
+        <v>2.0870790000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1099.520000</v>
+        <v>1099.52</v>
       </c>
       <c r="BL3" s="1">
-        <v>-309.913000</v>
+        <v>-309.91300000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>7524.618801</v>
+        <v>7524.6188009999996</v>
       </c>
       <c r="BO3" s="1">
-        <v>2.090172</v>
+        <v>2.0901719999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1205.100000</v>
+        <v>1205.0999999999999</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-494.621000</v>
+        <v>-494.62099999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>7535.673634</v>
+        <v>7535.6736339999998</v>
       </c>
       <c r="BT3" s="1">
-        <v>2.093243</v>
+        <v>2.0932430000000002</v>
       </c>
       <c r="BU3" s="1">
-        <v>1325.270000</v>
+        <v>1325.27</v>
       </c>
       <c r="BV3" s="1">
-        <v>-698.237000</v>
+        <v>-698.23699999999997</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>7546.657011</v>
+        <v>7546.6570110000002</v>
       </c>
       <c r="BY3" s="1">
-        <v>2.096294</v>
+        <v>2.0962939999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1459.930000</v>
+        <v>1459.93</v>
       </c>
       <c r="CA3" s="1">
-        <v>-915.886000</v>
+        <v>-915.88599999999997</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>7557.605732</v>
@@ -978,544 +1394,544 @@
         <v>2.099335</v>
       </c>
       <c r="CE3" s="1">
-        <v>1816.530000</v>
+        <v>1816.53</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1434.280000</v>
+        <v>-1434.28</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>7387.783989</v>
+        <v>7387.7839889999996</v>
       </c>
       <c r="B4" s="1">
         <v>2.052162</v>
       </c>
       <c r="C4" s="1">
-        <v>895.481000</v>
+        <v>895.48099999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-195.857000</v>
+        <v>-195.857</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>7398.198951</v>
+        <v>7398.1989510000003</v>
       </c>
       <c r="G4" s="1">
-        <v>2.055055</v>
+        <v>2.0550549999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>914.277000</v>
+        <v>914.27700000000004</v>
       </c>
       <c r="I4" s="1">
-        <v>-166.605000</v>
+        <v>-166.60499999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>7408.662554</v>
+        <v>7408.6625540000005</v>
       </c>
       <c r="L4" s="1">
-        <v>2.057962</v>
+        <v>2.0579619999999998</v>
       </c>
       <c r="M4" s="1">
-        <v>938.544000</v>
+        <v>938.54399999999998</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.732000</v>
+        <v>-118.732</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>7418.872203</v>
+        <v>7418.8722029999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>2.060798</v>
+        <v>2.0607980000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>945.440000</v>
+        <v>945.44</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.839000</v>
+        <v>-102.839</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>7429.133470</v>
+        <v>7429.1334699999998</v>
       </c>
       <c r="V4" s="1">
-        <v>2.063648</v>
+        <v>2.0636480000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>952.209000</v>
+        <v>952.20899999999995</v>
       </c>
       <c r="X4" s="1">
-        <v>-87.909500</v>
+        <v>-87.909499999999994</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>7439.272658</v>
+        <v>7439.2726579999999</v>
       </c>
       <c r="AA4" s="1">
         <v>2.066465</v>
       </c>
       <c r="AB4" s="1">
-        <v>959.421000</v>
+        <v>959.42100000000005</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.519500</v>
+        <v>-76.519499999999994</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>7449.472883</v>
+        <v>7449.4728830000004</v>
       </c>
       <c r="AF4" s="1">
-        <v>2.069298</v>
+        <v>2.0692979999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>964.248000</v>
+        <v>964.24800000000005</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.154600</v>
+        <v>-74.154600000000002</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>7459.624006</v>
       </c>
       <c r="AK4" s="1">
-        <v>2.072118</v>
+        <v>2.0721180000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>971.470000</v>
+        <v>971.47</v>
       </c>
       <c r="AM4" s="1">
-        <v>-78.771500</v>
+        <v>-78.771500000000003</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>7469.882796</v>
+        <v>7469.8827959999999</v>
       </c>
       <c r="AP4" s="1">
         <v>2.074967</v>
       </c>
       <c r="AQ4" s="1">
-        <v>979.492000</v>
+        <v>979.49199999999996</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.041800</v>
+        <v>-90.041799999999995</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>7480.757546</v>
+        <v>7480.7575459999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>2.077988</v>
+        <v>2.0779879999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>989.218000</v>
+        <v>989.21799999999996</v>
       </c>
       <c r="AW4" s="1">
-        <v>-107.394000</v>
+        <v>-107.39400000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>7491.867931</v>
+        <v>7491.8679309999998</v>
       </c>
       <c r="AZ4" s="1">
-        <v>2.081074</v>
+        <v>2.0810740000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>997.309000</v>
+        <v>997.30899999999997</v>
       </c>
       <c r="BB4" s="1">
-        <v>-122.715000</v>
+        <v>-122.715</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>7503.196060</v>
+        <v>7503.1960600000002</v>
       </c>
       <c r="BE4" s="1">
-        <v>2.084221</v>
+        <v>2.0842209999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1034.900000</v>
+        <v>1034.9000000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-193.718000</v>
+        <v>-193.71799999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>7514.233535</v>
+        <v>7514.2335350000003</v>
       </c>
       <c r="BJ4" s="1">
-        <v>2.087287</v>
+        <v>2.0872869999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1099.510000</v>
+        <v>1099.51</v>
       </c>
       <c r="BL4" s="1">
-        <v>-309.894000</v>
+        <v>-309.89400000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>7525.024991</v>
+        <v>7525.0249910000002</v>
       </c>
       <c r="BO4" s="1">
-        <v>2.090285</v>
+        <v>2.0902850000000002</v>
       </c>
       <c r="BP4" s="1">
-        <v>1205.080000</v>
+        <v>1205.08</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-494.599000</v>
+        <v>-494.59899999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>7536.095201</v>
+        <v>7536.0952010000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>2.093360</v>
+        <v>2.0933600000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1325.290000</v>
+        <v>1325.29</v>
       </c>
       <c r="BV4" s="1">
-        <v>-698.332000</v>
+        <v>-698.33199999999999</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>7547.105395</v>
+        <v>7547.1053949999996</v>
       </c>
       <c r="BY4" s="1">
-        <v>2.096418</v>
+        <v>2.0964179999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1459.990000</v>
+        <v>1459.99</v>
       </c>
       <c r="CA4" s="1">
-        <v>-915.839000</v>
+        <v>-915.83900000000006</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>7558.437988</v>
+        <v>7558.4379879999997</v>
       </c>
       <c r="CD4" s="1">
-        <v>2.099566</v>
+        <v>2.0995659999999998</v>
       </c>
       <c r="CE4" s="1">
-        <v>1817.110000</v>
+        <v>1817.11</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1432.860000</v>
+        <v>-1432.86</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>7388.125206</v>
+        <v>7388.1252059999997</v>
       </c>
       <c r="B5" s="1">
         <v>2.052257</v>
       </c>
       <c r="C5" s="1">
-        <v>895.425000</v>
+        <v>895.42499999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>-195.711000</v>
+        <v>-195.71100000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>7398.549126</v>
+        <v>7398.5491259999999</v>
       </c>
       <c r="G5" s="1">
-        <v>2.055153</v>
+        <v>2.0551529999999998</v>
       </c>
       <c r="H5" s="1">
-        <v>914.031000</v>
+        <v>914.03099999999995</v>
       </c>
       <c r="I5" s="1">
-        <v>-166.506000</v>
+        <v>-166.506</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>7409.009256</v>
+        <v>7409.0092560000003</v>
       </c>
       <c r="L5" s="1">
-        <v>2.058058</v>
+        <v>2.0580579999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>938.443000</v>
+        <v>938.44299999999998</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.709000</v>
+        <v>-118.709</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>7419.294332</v>
+        <v>7419.2943320000004</v>
       </c>
       <c r="Q5" s="1">
-        <v>2.060915</v>
+        <v>2.0609150000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>945.403000</v>
+        <v>945.40300000000002</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.795000</v>
+        <v>-102.795</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>7429.427597</v>
+        <v>7429.4275969999999</v>
       </c>
       <c r="V5" s="1">
-        <v>2.063730</v>
+        <v>2.0637300000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>952.206000</v>
+        <v>952.20600000000002</v>
       </c>
       <c r="X5" s="1">
-        <v>-87.975500</v>
+        <v>-87.975499999999997</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>7439.581168</v>
+        <v>7439.5811679999997</v>
       </c>
       <c r="AA5" s="1">
-        <v>2.066550</v>
+        <v>2.0665499999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>959.464000</v>
+        <v>959.46400000000006</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.449100</v>
+        <v>-76.449100000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>7449.816642</v>
+        <v>7449.8166419999998</v>
       </c>
       <c r="AF5" s="1">
         <v>2.069394</v>
       </c>
       <c r="AG5" s="1">
-        <v>964.273000</v>
+        <v>964.27300000000002</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.135100</v>
+        <v>-74.135099999999994</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>7459.974677</v>
+        <v>7459.9746770000002</v>
       </c>
       <c r="AK5" s="1">
-        <v>2.072215</v>
+        <v>2.0722149999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>971.483000</v>
+        <v>971.48299999999995</v>
       </c>
       <c r="AM5" s="1">
-        <v>-78.752700</v>
+        <v>-78.752700000000004</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>7470.240376</v>
+        <v>7470.2403759999997</v>
       </c>
       <c r="AP5" s="1">
-        <v>2.075067</v>
+        <v>2.0750670000000002</v>
       </c>
       <c r="AQ5" s="1">
-        <v>979.507000</v>
+        <v>979.50699999999995</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.076200</v>
+        <v>-90.0762</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>7481.490633</v>
+        <v>7481.4906330000003</v>
       </c>
       <c r="AU5" s="1">
         <v>2.078192</v>
       </c>
       <c r="AV5" s="1">
-        <v>989.203000</v>
+        <v>989.20299999999997</v>
       </c>
       <c r="AW5" s="1">
-        <v>-107.415000</v>
+        <v>-107.41500000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>7492.580187</v>
+        <v>7492.5801869999996</v>
       </c>
       <c r="AZ5" s="1">
-        <v>2.081272</v>
+        <v>2.0812719999999998</v>
       </c>
       <c r="BA5" s="1">
-        <v>997.305000</v>
+        <v>997.30499999999995</v>
       </c>
       <c r="BB5" s="1">
-        <v>-122.730000</v>
+        <v>-122.73</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>7503.584427</v>
+        <v>7503.5844269999998</v>
       </c>
       <c r="BE5" s="1">
-        <v>2.084329</v>
+        <v>2.0843289999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1034.900000</v>
+        <v>1034.9000000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-193.727000</v>
+        <v>-193.727</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>7514.608510</v>
+        <v>7514.60851</v>
       </c>
       <c r="BJ5" s="1">
-        <v>2.087391</v>
+        <v>2.0873910000000002</v>
       </c>
       <c r="BK5" s="1">
-        <v>1099.520000</v>
+        <v>1099.52</v>
       </c>
       <c r="BL5" s="1">
-        <v>-309.892000</v>
+        <v>-309.892</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>7525.425263</v>
+        <v>7525.4252630000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>2.090396</v>
+        <v>2.0903960000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1205.120000</v>
+        <v>1205.1199999999999</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-494.599000</v>
+        <v>-494.59899999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>7536.813256</v>
+        <v>7536.8132560000004</v>
       </c>
       <c r="BT5" s="1">
-        <v>2.093559</v>
+        <v>2.0935589999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1325.240000</v>
+        <v>1325.24</v>
       </c>
       <c r="BV5" s="1">
-        <v>-698.290000</v>
+        <v>-698.29</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>7547.850386</v>
+        <v>7547.8503860000001</v>
       </c>
       <c r="BY5" s="1">
         <v>2.096625</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1459.960000</v>
+        <v>1459.96</v>
       </c>
       <c r="CA5" s="1">
-        <v>-915.924000</v>
+        <v>-915.92399999999998</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>7558.664659</v>
       </c>
       <c r="CD5" s="1">
-        <v>2.099629</v>
+        <v>2.0996290000000002</v>
       </c>
       <c r="CE5" s="1">
-        <v>1816.780000</v>
+        <v>1816.78</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1432.950000</v>
+        <v>-1432.95</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>7388.470915</v>
+        <v>7388.4709149999999</v>
       </c>
       <c r="B6" s="1">
-        <v>2.052353</v>
+        <v>2.0523530000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>895.653000</v>
+        <v>895.65300000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>-195.537000</v>
+        <v>-195.53700000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>7398.958337</v>
@@ -1524,784 +1940,784 @@
         <v>2.055266</v>
       </c>
       <c r="H6" s="1">
-        <v>914.067000</v>
+        <v>914.06700000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-166.581000</v>
+        <v>-166.58099999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>7409.424904</v>
+        <v>7409.4249040000004</v>
       </c>
       <c r="L6" s="1">
-        <v>2.058174</v>
+        <v>2.0581740000000002</v>
       </c>
       <c r="M6" s="1">
-        <v>938.294000</v>
+        <v>938.29399999999998</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.918000</v>
+        <v>-118.91800000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>7419.571066</v>
+        <v>7419.5710660000004</v>
       </c>
       <c r="Q6" s="1">
-        <v>2.060992</v>
+        <v>2.0609920000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>945.419000</v>
+        <v>945.41899999999998</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.800000</v>
+        <v>-102.8</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>7429.772287</v>
+        <v>7429.7722869999998</v>
       </c>
       <c r="V6" s="1">
-        <v>2.063826</v>
+        <v>2.0638260000000002</v>
       </c>
       <c r="W6" s="1">
-        <v>952.119000</v>
+        <v>952.11900000000003</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.005600</v>
+        <v>-88.005600000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>7439.929856</v>
+        <v>7439.9298559999997</v>
       </c>
       <c r="AA6" s="1">
-        <v>2.066647</v>
+        <v>2.0666470000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>959.485000</v>
+        <v>959.48500000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.488800</v>
+        <v>-76.488799999999998</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>7450.160862</v>
+        <v>7450.1608619999997</v>
       </c>
       <c r="AF6" s="1">
-        <v>2.069489</v>
+        <v>2.0694889999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>964.230000</v>
+        <v>964.23</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.200200</v>
+        <v>-74.200199999999995</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>7460.320885</v>
+        <v>7460.3208850000001</v>
       </c>
       <c r="AK6" s="1">
         <v>2.072311</v>
       </c>
       <c r="AL6" s="1">
-        <v>971.480000</v>
+        <v>971.48</v>
       </c>
       <c r="AM6" s="1">
-        <v>-78.767900</v>
+        <v>-78.767899999999997</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>7470.965527</v>
+        <v>7470.9655270000003</v>
       </c>
       <c r="AP6" s="1">
-        <v>2.075268</v>
+        <v>2.0752679999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>979.495000</v>
+        <v>979.495</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.067200</v>
+        <v>-90.0672</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>7481.882507</v>
+        <v>7481.8825070000003</v>
       </c>
       <c r="AU6" s="1">
-        <v>2.078301</v>
+        <v>2.0783010000000002</v>
       </c>
       <c r="AV6" s="1">
-        <v>989.237000</v>
+        <v>989.23699999999997</v>
       </c>
       <c r="AW6" s="1">
-        <v>-107.406000</v>
+        <v>-107.40600000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>7492.967250</v>
+        <v>7492.9672499999997</v>
       </c>
       <c r="AZ6" s="1">
-        <v>2.081380</v>
+        <v>2.0813799999999998</v>
       </c>
       <c r="BA6" s="1">
-        <v>997.306000</v>
+        <v>997.30600000000004</v>
       </c>
       <c r="BB6" s="1">
-        <v>-122.728000</v>
+        <v>-122.72799999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>7503.944524</v>
+        <v>7503.9445239999995</v>
       </c>
       <c r="BE6" s="1">
-        <v>2.084429</v>
+        <v>2.0844290000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1034.910000</v>
+        <v>1034.9100000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-193.718000</v>
+        <v>-193.71799999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>7515.288556</v>
+        <v>7515.2885560000004</v>
       </c>
       <c r="BJ6" s="1">
-        <v>2.087580</v>
+        <v>2.08758</v>
       </c>
       <c r="BK6" s="1">
-        <v>1099.510000</v>
+        <v>1099.51</v>
       </c>
       <c r="BL6" s="1">
-        <v>-309.904000</v>
+        <v>-309.904</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>7526.153391</v>
+        <v>7526.1533909999998</v>
       </c>
       <c r="BO6" s="1">
         <v>2.090598</v>
       </c>
       <c r="BP6" s="1">
-        <v>1205.090000</v>
+        <v>1205.0899999999999</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-494.643000</v>
+        <v>-494.64299999999997</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>7536.940384</v>
+        <v>7536.9403840000004</v>
       </c>
       <c r="BT6" s="1">
-        <v>2.093595</v>
+        <v>2.0935950000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1325.270000</v>
+        <v>1325.27</v>
       </c>
       <c r="BV6" s="1">
-        <v>-698.347000</v>
+        <v>-698.34699999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>7547.969464</v>
+        <v>7547.9694639999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>2.096658</v>
+        <v>2.0966580000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1459.980000</v>
+        <v>1459.98</v>
       </c>
       <c r="CA6" s="1">
-        <v>-915.900000</v>
+        <v>-915.9</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>7559.184962</v>
+        <v>7559.1849620000003</v>
       </c>
       <c r="CD6" s="1">
         <v>2.099774</v>
       </c>
       <c r="CE6" s="1">
-        <v>1816.550000</v>
+        <v>1816.55</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1434.150000</v>
+        <v>-1434.15</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>7388.894531</v>
+        <v>7388.8945309999999</v>
       </c>
       <c r="B7" s="1">
-        <v>2.052471</v>
+        <v>2.0524710000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>895.471000</v>
+        <v>895.471</v>
       </c>
       <c r="D7" s="1">
-        <v>-195.756000</v>
+        <v>-195.756</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>7399.237104</v>
+        <v>7399.2371039999998</v>
       </c>
       <c r="G7" s="1">
-        <v>2.055344</v>
+        <v>2.0553439999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>914.281000</v>
+        <v>914.28099999999995</v>
       </c>
       <c r="I7" s="1">
-        <v>-166.212000</v>
+        <v>-166.21199999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>7409.727005</v>
+        <v>7409.7270049999997</v>
       </c>
       <c r="L7" s="1">
-        <v>2.058258</v>
+        <v>2.0582579999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>938.353000</v>
+        <v>938.35299999999995</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.803000</v>
+        <v>-118.803</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>7419.920746</v>
+        <v>7419.9207459999998</v>
       </c>
       <c r="Q7" s="1">
-        <v>2.061089</v>
+        <v>2.0610889999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>945.430000</v>
+        <v>945.43</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.764000</v>
+        <v>-102.764</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>7430.116508</v>
+        <v>7430.1165080000001</v>
       </c>
       <c r="V7" s="1">
-        <v>2.063921</v>
+        <v>2.0639210000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>952.176000</v>
+        <v>952.17600000000004</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.001500</v>
+        <v>-88.001499999999993</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>7440.279535</v>
+        <v>7440.2795349999997</v>
       </c>
       <c r="AA7" s="1">
-        <v>2.066744</v>
+        <v>2.0667439999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>959.455000</v>
+        <v>959.45500000000004</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.533800</v>
+        <v>-76.533799999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>7450.835395</v>
+        <v>7450.8353950000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>2.069676</v>
+        <v>2.0696759999999998</v>
       </c>
       <c r="AG7" s="1">
-        <v>964.240000</v>
+        <v>964.24</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.171600</v>
+        <v>-74.171599999999998</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>7461.017764</v>
+        <v>7461.0177640000002</v>
       </c>
       <c r="AK7" s="1">
         <v>2.072505</v>
       </c>
       <c r="AL7" s="1">
-        <v>971.479000</v>
+        <v>971.47900000000004</v>
       </c>
       <c r="AM7" s="1">
-        <v>-78.764400</v>
+        <v>-78.764399999999995</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>7471.326118</v>
       </c>
       <c r="AP7" s="1">
-        <v>2.075368</v>
+        <v>2.0753680000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>979.514000</v>
+        <v>979.51400000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.063400</v>
+        <v>-90.063400000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>7482.248055</v>
       </c>
       <c r="AU7" s="1">
-        <v>2.078402</v>
+        <v>2.0784020000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>989.217000</v>
+        <v>989.21699999999998</v>
       </c>
       <c r="AW7" s="1">
-        <v>-107.410000</v>
+        <v>-107.41</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>7493.346537</v>
+        <v>7493.3465370000004</v>
       </c>
       <c r="AZ7" s="1">
-        <v>2.081485</v>
+        <v>2.0814849999999998</v>
       </c>
       <c r="BA7" s="1">
-        <v>997.296000</v>
+        <v>997.29600000000005</v>
       </c>
       <c r="BB7" s="1">
-        <v>-122.719000</v>
+        <v>-122.71899999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>7504.618127</v>
+        <v>7504.6181269999997</v>
       </c>
       <c r="BE7" s="1">
         <v>2.084616</v>
       </c>
       <c r="BF7" s="1">
-        <v>1034.910000</v>
+        <v>1034.9100000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-193.726000</v>
+        <v>-193.726</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>7515.396193</v>
+        <v>7515.3961929999996</v>
       </c>
       <c r="BJ7" s="1">
-        <v>2.087610</v>
+        <v>2.0876100000000002</v>
       </c>
       <c r="BK7" s="1">
-        <v>1099.500000</v>
+        <v>1099.5</v>
       </c>
       <c r="BL7" s="1">
-        <v>-309.905000</v>
+        <v>-309.90499999999997</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>7526.267967</v>
+        <v>7526.2679669999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>2.090630</v>
+        <v>2.09063</v>
       </c>
       <c r="BP7" s="1">
-        <v>1205.120000</v>
+        <v>1205.1199999999999</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-494.634000</v>
+        <v>-494.63400000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>7537.352559</v>
+        <v>7537.3525589999999</v>
       </c>
       <c r="BT7" s="1">
         <v>2.093709</v>
       </c>
       <c r="BU7" s="1">
-        <v>1325.260000</v>
+        <v>1325.26</v>
       </c>
       <c r="BV7" s="1">
-        <v>-698.281000</v>
+        <v>-698.28099999999995</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>7548.394497</v>
+        <v>7548.3944970000002</v>
       </c>
       <c r="BY7" s="1">
-        <v>2.096776</v>
+        <v>2.0967760000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1460.060000</v>
+        <v>1460.06</v>
       </c>
       <c r="CA7" s="1">
-        <v>-915.916000</v>
+        <v>-915.91600000000005</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>7559.702785</v>
+        <v>7559.7027850000004</v>
       </c>
       <c r="CD7" s="1">
         <v>2.099917</v>
       </c>
       <c r="CE7" s="1">
-        <v>1817.840000</v>
+        <v>1817.84</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1434.440000</v>
+        <v>-1434.44</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>7389.174282</v>
+        <v>7389.1742819999999</v>
       </c>
       <c r="B8" s="1">
-        <v>2.052548</v>
+        <v>2.0525479999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>895.587000</v>
+        <v>895.58699999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-195.534000</v>
+        <v>-195.53399999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>7399.571877</v>
+        <v>7399.5718770000003</v>
       </c>
       <c r="G8" s="1">
         <v>2.055437</v>
       </c>
       <c r="H8" s="1">
-        <v>914.264000</v>
+        <v>914.26400000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-166.402000</v>
+        <v>-166.40199999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>7410.058791</v>
+        <v>7410.0587910000004</v>
       </c>
       <c r="L8" s="1">
-        <v>2.058350</v>
+        <v>2.0583499999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>938.254000</v>
+        <v>938.25400000000002</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.041000</v>
+        <v>-119.041</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>7420.267946</v>
+        <v>7420.2679459999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>2.061186</v>
+        <v>2.0611860000000002</v>
       </c>
       <c r="R8" s="1">
-        <v>945.477000</v>
+        <v>945.47699999999998</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.799000</v>
+        <v>-102.79900000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>7430.803964</v>
+        <v>7430.8039639999997</v>
       </c>
       <c r="V8" s="1">
-        <v>2.064112</v>
+        <v>2.0641120000000002</v>
       </c>
       <c r="W8" s="1">
-        <v>952.134000</v>
+        <v>952.13400000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-87.965400</v>
+        <v>-87.965400000000002</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>7440.975950</v>
+        <v>7440.97595</v>
       </c>
       <c r="AA8" s="1">
-        <v>2.066938</v>
+        <v>2.0669379999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>959.460000</v>
+        <v>959.46</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.387000</v>
+        <v>-76.387</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>7451.189564</v>
+        <v>7451.1895640000002</v>
       </c>
       <c r="AF8" s="1">
-        <v>2.069775</v>
+        <v>2.0697749999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>964.269000</v>
+        <v>964.26900000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.186700</v>
+        <v>-74.186700000000002</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>7461.367480</v>
+        <v>7461.3674799999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>2.072602</v>
+        <v>2.0726019999999998</v>
       </c>
       <c r="AL8" s="1">
-        <v>971.503000</v>
+        <v>971.50300000000004</v>
       </c>
       <c r="AM8" s="1">
-        <v>-78.764000</v>
+        <v>-78.763999999999996</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>7471.685836</v>
+        <v>7471.6858359999997</v>
       </c>
       <c r="AP8" s="1">
-        <v>2.075468</v>
+        <v>2.0754679999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>979.490000</v>
+        <v>979.49</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.069000</v>
+        <v>-90.069000000000003</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>7482.914151</v>
+        <v>7482.9141509999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>2.078587</v>
+        <v>2.0785870000000002</v>
       </c>
       <c r="AV8" s="1">
-        <v>989.184000</v>
+        <v>989.18399999999997</v>
       </c>
       <c r="AW8" s="1">
-        <v>-107.417000</v>
+        <v>-107.417</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>7494.015113</v>
+        <v>7494.0151130000004</v>
       </c>
       <c r="AZ8" s="1">
         <v>2.081671</v>
       </c>
       <c r="BA8" s="1">
-        <v>997.298000</v>
+        <v>997.298</v>
       </c>
       <c r="BB8" s="1">
-        <v>-122.728000</v>
+        <v>-122.72799999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>7505.062009</v>
+        <v>7505.0620090000002</v>
       </c>
       <c r="BE8" s="1">
-        <v>2.084739</v>
+        <v>2.0847389999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1034.900000</v>
+        <v>1034.9000000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-193.717000</v>
+        <v>-193.71700000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>7515.764188</v>
+        <v>7515.7641880000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>2.087712</v>
+        <v>2.0877119999999998</v>
       </c>
       <c r="BK8" s="1">
-        <v>1099.510000</v>
+        <v>1099.51</v>
       </c>
       <c r="BL8" s="1">
-        <v>-309.890000</v>
+        <v>-309.89</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>7526.664269</v>
+        <v>7526.6642689999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>2.090740</v>
+        <v>2.0907399999999998</v>
       </c>
       <c r="BP8" s="1">
-        <v>1205.100000</v>
+        <v>1205.0999999999999</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-494.631000</v>
+        <v>-494.63099999999997</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>7537.782590</v>
+        <v>7537.7825899999998</v>
       </c>
       <c r="BT8" s="1">
-        <v>2.093828</v>
+        <v>2.0938279999999998</v>
       </c>
       <c r="BU8" s="1">
-        <v>1325.260000</v>
+        <v>1325.26</v>
       </c>
       <c r="BV8" s="1">
-        <v>-698.320000</v>
+        <v>-698.32</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>7548.812129</v>
+        <v>7548.8121289999999</v>
       </c>
       <c r="BY8" s="1">
         <v>2.096892</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1459.910000</v>
+        <v>1459.91</v>
       </c>
       <c r="CA8" s="1">
-        <v>-915.931000</v>
+        <v>-915.93100000000004</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>7560.219617</v>
+        <v>7560.2196169999997</v>
       </c>
       <c r="CD8" s="1">
-        <v>2.100061</v>
+        <v>2.1000610000000002</v>
       </c>
       <c r="CE8" s="1">
-        <v>1817.890000</v>
+        <v>1817.89</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1433.050000</v>
+        <v>-1433.05</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>7389.516482</v>
       </c>
       <c r="B9" s="1">
-        <v>2.052643</v>
+        <v>2.0526430000000002</v>
       </c>
       <c r="C9" s="1">
-        <v>895.598000</v>
+        <v>895.59799999999996</v>
       </c>
       <c r="D9" s="1">
-        <v>-195.464000</v>
+        <v>-195.464</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>7399.929524</v>
+        <v>7399.9295240000001</v>
       </c>
       <c r="G9" s="1">
         <v>2.055536</v>
       </c>
       <c r="H9" s="1">
-        <v>913.884000</v>
+        <v>913.88400000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-166.759000</v>
+        <v>-166.75899999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>7410.774531</v>
@@ -2310,2688 +2726,2688 @@
         <v>2.058548</v>
       </c>
       <c r="M9" s="1">
-        <v>938.365000</v>
+        <v>938.36500000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.732000</v>
+        <v>-118.732</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>7420.964856</v>
+        <v>7420.9648559999996</v>
       </c>
       <c r="Q9" s="1">
-        <v>2.061379</v>
+        <v>2.0613790000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>945.435000</v>
+        <v>945.43499999999995</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.807000</v>
+        <v>-102.807</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>7431.147195</v>
+        <v>7431.1471949999996</v>
       </c>
       <c r="V9" s="1">
-        <v>2.064208</v>
+        <v>2.0642079999999998</v>
       </c>
       <c r="W9" s="1">
-        <v>952.158000</v>
+        <v>952.15800000000002</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.104100</v>
+        <v>-88.104100000000003</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>7441.327619</v>
+        <v>7441.3276189999997</v>
       </c>
       <c r="AA9" s="1">
-        <v>2.067035</v>
+        <v>2.0670350000000002</v>
       </c>
       <c r="AB9" s="1">
-        <v>959.564000</v>
+        <v>959.56399999999996</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.525200</v>
+        <v>-76.525199999999998</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>7451.533264</v>
+        <v>7451.5332639999997</v>
       </c>
       <c r="AF9" s="1">
-        <v>2.069870</v>
+        <v>2.0698699999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>964.213000</v>
+        <v>964.21299999999997</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.193200</v>
+        <v>-74.193200000000004</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>7461.711667</v>
+        <v>7461.7116669999996</v>
       </c>
       <c r="AK9" s="1">
-        <v>2.072698</v>
+        <v>2.0726979999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>971.459000</v>
+        <v>971.45899999999995</v>
       </c>
       <c r="AM9" s="1">
-        <v>-78.736200</v>
+        <v>-78.736199999999997</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>7472.352838</v>
+        <v>7472.3528379999998</v>
       </c>
       <c r="AP9" s="1">
-        <v>2.075654</v>
+        <v>2.0756540000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>979.498000</v>
+        <v>979.49800000000005</v>
       </c>
       <c r="AR9" s="1">
-        <v>-90.032700</v>
+        <v>-90.032700000000006</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>7483.340712</v>
+        <v>7483.3407120000002</v>
       </c>
       <c r="AU9" s="1">
-        <v>2.078706</v>
+        <v>2.0787059999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>989.220000</v>
+        <v>989.22</v>
       </c>
       <c r="AW9" s="1">
-        <v>-107.410000</v>
+        <v>-107.41</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>7494.430264</v>
+        <v>7494.4302639999996</v>
       </c>
       <c r="AZ9" s="1">
-        <v>2.081786</v>
+        <v>2.0817860000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>997.298000</v>
+        <v>997.298</v>
       </c>
       <c r="BB9" s="1">
-        <v>-122.721000</v>
+        <v>-122.721</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>7505.424132</v>
+        <v>7505.4241320000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>2.084840</v>
+        <v>2.0848399999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1034.890000</v>
+        <v>1034.8900000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-193.718000</v>
+        <v>-193.71799999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>7516.137210</v>
+        <v>7516.1372099999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>2.087816</v>
+        <v>2.0878160000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1099.500000</v>
+        <v>1099.5</v>
       </c>
       <c r="BL9" s="1">
-        <v>-309.880000</v>
+        <v>-309.88</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>7527.088349</v>
+        <v>7527.0883489999997</v>
       </c>
       <c r="BO9" s="1">
-        <v>2.090858</v>
+        <v>2.0908579999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1205.100000</v>
+        <v>1205.0999999999999</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-494.574000</v>
+        <v>-494.57400000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>7538.194766</v>
+        <v>7538.1947659999996</v>
       </c>
       <c r="BT9" s="1">
-        <v>2.093943</v>
+        <v>2.0939429999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1325.180000</v>
+        <v>1325.18</v>
       </c>
       <c r="BV9" s="1">
-        <v>-698.326000</v>
+        <v>-698.32600000000002</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>7549.258031</v>
+        <v>7549.2580310000003</v>
       </c>
       <c r="BY9" s="1">
         <v>2.097016</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1460.060000</v>
+        <v>1460.06</v>
       </c>
       <c r="CA9" s="1">
-        <v>-915.948000</v>
+        <v>-915.94799999999998</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>7560.737936</v>
+        <v>7560.7379360000004</v>
       </c>
       <c r="CD9" s="1">
-        <v>2.100205</v>
+        <v>2.1002049999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1818.080000</v>
+        <v>1818.08</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1433.540000</v>
+        <v>-1433.54</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>7389.858734</v>
+        <v>7389.8587340000004</v>
       </c>
       <c r="B10" s="1">
-        <v>2.052739</v>
+        <v>2.0527389999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>895.639000</v>
+        <v>895.63900000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-195.518000</v>
+        <v>-195.518</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>7400.617444</v>
+        <v>7400.6174440000004</v>
       </c>
       <c r="G10" s="1">
-        <v>2.055727</v>
+        <v>2.0557270000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>914.096000</v>
+        <v>914.096</v>
       </c>
       <c r="I10" s="1">
-        <v>-166.283000</v>
+        <v>-166.28299999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>7411.105350</v>
+        <v>7411.1053499999998</v>
       </c>
       <c r="L10" s="1">
-        <v>2.058640</v>
+        <v>2.05864</v>
       </c>
       <c r="M10" s="1">
-        <v>938.339000</v>
+        <v>938.33900000000006</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.759000</v>
+        <v>-118.759</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>7421.314008</v>
+        <v>7421.3140080000003</v>
       </c>
       <c r="Q10" s="1">
-        <v>2.061476</v>
+        <v>2.0614759999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>945.433000</v>
+        <v>945.43299999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.808000</v>
+        <v>-102.80800000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>7431.489964</v>
+        <v>7431.4899640000003</v>
       </c>
       <c r="V10" s="1">
-        <v>2.064303</v>
+        <v>2.0643030000000002</v>
       </c>
       <c r="W10" s="1">
-        <v>952.141000</v>
+        <v>952.14099999999996</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.052100</v>
+        <v>-88.052099999999996</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>7441.675315</v>
+        <v>7441.6753150000004</v>
       </c>
       <c r="AA10" s="1">
         <v>2.067132</v>
       </c>
       <c r="AB10" s="1">
-        <v>959.452000</v>
+        <v>959.452</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.400600</v>
+        <v>-76.400599999999997</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>7452.177567</v>
+        <v>7452.1775669999997</v>
       </c>
       <c r="AF10" s="1">
         <v>2.070049</v>
       </c>
       <c r="AG10" s="1">
-        <v>964.261000</v>
+        <v>964.26099999999997</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.219100</v>
+        <v>-74.219099999999997</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>7462.186533</v>
+        <v>7462.1865330000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>2.072830</v>
+        <v>2.0728300000000002</v>
       </c>
       <c r="AL10" s="1">
-        <v>971.484000</v>
+        <v>971.48400000000004</v>
       </c>
       <c r="AM10" s="1">
-        <v>-78.750100</v>
+        <v>-78.750100000000003</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>7472.794276</v>
+        <v>7472.7942759999996</v>
       </c>
       <c r="AP10" s="1">
-        <v>2.075776</v>
+        <v>2.0757759999999998</v>
       </c>
       <c r="AQ10" s="1">
-        <v>979.510000</v>
+        <v>979.51</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.070300</v>
+        <v>-90.070300000000003</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>7483.705270</v>
+        <v>7483.7052700000004</v>
       </c>
       <c r="AU10" s="1">
-        <v>2.078807</v>
+        <v>2.0788069999999998</v>
       </c>
       <c r="AV10" s="1">
-        <v>989.209000</v>
+        <v>989.20899999999995</v>
       </c>
       <c r="AW10" s="1">
-        <v>-107.402000</v>
+        <v>-107.402</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>7494.804247</v>
       </c>
       <c r="AZ10" s="1">
-        <v>2.081890</v>
+        <v>2.08189</v>
       </c>
       <c r="BA10" s="1">
-        <v>997.281000</v>
+        <v>997.28099999999995</v>
       </c>
       <c r="BB10" s="1">
-        <v>-122.728000</v>
+        <v>-122.72799999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>7505.784713</v>
       </c>
       <c r="BE10" s="1">
-        <v>2.084940</v>
+        <v>2.08494</v>
       </c>
       <c r="BF10" s="1">
-        <v>1034.890000</v>
+        <v>1034.8900000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-193.723000</v>
+        <v>-193.72300000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>7516.547370</v>
+        <v>7516.5473700000002</v>
       </c>
       <c r="BJ10" s="1">
-        <v>2.087930</v>
+        <v>2.0879300000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1099.520000</v>
+        <v>1099.52</v>
       </c>
       <c r="BL10" s="1">
-        <v>-309.873000</v>
+        <v>-309.87299999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>7527.500561</v>
+        <v>7527.5005609999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>2.090972</v>
+        <v>2.0909719999999998</v>
       </c>
       <c r="BP10" s="1">
-        <v>1205.100000</v>
+        <v>1205.0999999999999</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-494.628000</v>
+        <v>-494.62799999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>7538.611406</v>
       </c>
       <c r="BT10" s="1">
-        <v>2.094059</v>
+        <v>2.0940590000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1325.240000</v>
+        <v>1325.24</v>
       </c>
       <c r="BV10" s="1">
-        <v>-698.342000</v>
+        <v>-698.34199999999998</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>7549.680659</v>
+        <v>7549.6806589999997</v>
       </c>
       <c r="BY10" s="1">
-        <v>2.097134</v>
+        <v>2.0971340000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1460.050000</v>
+        <v>1460.05</v>
       </c>
       <c r="CA10" s="1">
-        <v>-915.916000</v>
+        <v>-915.91600000000005</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>7561.292961</v>
+        <v>7561.2929610000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>2.100359</v>
+        <v>2.1003590000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1817.420000</v>
+        <v>1817.42</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1434.360000</v>
+        <v>-1434.36</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>7390.539729</v>
+        <v>7390.5397290000001</v>
       </c>
       <c r="B11" s="1">
-        <v>2.052928</v>
+        <v>2.0529280000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>895.629000</v>
+        <v>895.62900000000002</v>
       </c>
       <c r="D11" s="1">
-        <v>-195.763000</v>
+        <v>-195.76300000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>7400.960675</v>
+        <v>7400.9606750000003</v>
       </c>
       <c r="G11" s="1">
         <v>2.055822</v>
       </c>
       <c r="H11" s="1">
-        <v>914.065000</v>
+        <v>914.06500000000005</v>
       </c>
       <c r="I11" s="1">
-        <v>-166.352000</v>
+        <v>-166.352</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>7411.453541</v>
+        <v>7411.4535409999999</v>
       </c>
       <c r="L11" s="1">
-        <v>2.058737</v>
+        <v>2.0587369999999998</v>
       </c>
       <c r="M11" s="1">
-        <v>938.362000</v>
+        <v>938.36199999999997</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.004000</v>
+        <v>-119.004</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>7421.663230</v>
+        <v>7421.6632300000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>2.061573</v>
+        <v>2.0615730000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>945.435000</v>
+        <v>945.43499999999995</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.798000</v>
+        <v>-102.798</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>7432.147660</v>
+        <v>7432.1476599999996</v>
       </c>
       <c r="V11" s="1">
-        <v>2.064485</v>
+        <v>2.0644849999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>952.157000</v>
+        <v>952.15700000000004</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.058300</v>
+        <v>-88.058300000000003</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>7442.330989</v>
       </c>
       <c r="AA11" s="1">
-        <v>2.067314</v>
+        <v>2.0673140000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>959.545000</v>
+        <v>959.54499999999996</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.455200</v>
+        <v>-76.455200000000005</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>7452.562463</v>
+        <v>7452.5624630000002</v>
       </c>
       <c r="AF11" s="1">
-        <v>2.070156</v>
+        <v>2.0701559999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>964.234000</v>
+        <v>964.23400000000004</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.196600</v>
+        <v>-74.196600000000004</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>7462.434871</v>
+        <v>7462.4348710000004</v>
       </c>
       <c r="AK11" s="1">
         <v>2.072899</v>
       </c>
       <c r="AL11" s="1">
-        <v>971.484000</v>
+        <v>971.48400000000004</v>
       </c>
       <c r="AM11" s="1">
-        <v>-78.759800</v>
+        <v>-78.759799999999998</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>7473.155397</v>
+        <v>7473.1553970000004</v>
       </c>
       <c r="AP11" s="1">
-        <v>2.075876</v>
+        <v>2.0758760000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>979.502000</v>
+        <v>979.50199999999995</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.062200</v>
+        <v>-90.062200000000004</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>7484.068871</v>
+        <v>7484.0688710000004</v>
       </c>
       <c r="AU11" s="1">
-        <v>2.078908</v>
+        <v>2.0789080000000002</v>
       </c>
       <c r="AV11" s="1">
-        <v>989.199000</v>
+        <v>989.19899999999996</v>
       </c>
       <c r="AW11" s="1">
-        <v>-107.391000</v>
+        <v>-107.39100000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>7495.195629</v>
+        <v>7495.1956289999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>2.081999</v>
+        <v>2.0819990000000002</v>
       </c>
       <c r="BA11" s="1">
-        <v>997.295000</v>
+        <v>997.29499999999996</v>
       </c>
       <c r="BB11" s="1">
-        <v>-122.748000</v>
+        <v>-122.748</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>7506.214750</v>
+        <v>7506.2147500000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>2.085060</v>
+        <v>2.0850599999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1034.910000</v>
+        <v>1034.9100000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-193.707000</v>
+        <v>-193.70699999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>7516.886634</v>
+        <v>7516.8866340000004</v>
       </c>
       <c r="BJ11" s="1">
-        <v>2.088024</v>
+        <v>2.0880239999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1099.520000</v>
+        <v>1099.52</v>
       </c>
       <c r="BL11" s="1">
-        <v>-309.879000</v>
+        <v>-309.87900000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>7527.909725</v>
+        <v>7527.9097250000004</v>
       </c>
       <c r="BO11" s="1">
-        <v>2.091086</v>
+        <v>2.0910859999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1205.090000</v>
+        <v>1205.0899999999999</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-494.614000</v>
+        <v>-494.61399999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>7539.024573</v>
+        <v>7539.0245729999997</v>
       </c>
       <c r="BT11" s="1">
-        <v>2.094173</v>
+        <v>2.0941730000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1325.260000</v>
+        <v>1325.26</v>
       </c>
       <c r="BV11" s="1">
-        <v>-698.330000</v>
+        <v>-698.33</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>7550.102222</v>
+        <v>7550.1022220000004</v>
       </c>
       <c r="BY11" s="1">
         <v>2.097251</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1460.040000</v>
+        <v>1460.04</v>
       </c>
       <c r="CA11" s="1">
-        <v>-915.865000</v>
+        <v>-915.86500000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>7561.819743</v>
       </c>
       <c r="CD11" s="1">
-        <v>2.100505</v>
+        <v>2.1005050000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1817.530000</v>
+        <v>1817.53</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1433.210000</v>
+        <v>-1433.21</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>7390.883488</v>
+        <v>7390.8834880000004</v>
       </c>
       <c r="B12" s="1">
         <v>2.053023</v>
       </c>
       <c r="C12" s="1">
-        <v>895.454000</v>
+        <v>895.45399999999995</v>
       </c>
       <c r="D12" s="1">
-        <v>-195.809000</v>
+        <v>-195.809</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>7401.306387</v>
+        <v>7401.3063869999996</v>
       </c>
       <c r="G12" s="1">
-        <v>2.055918</v>
+        <v>2.0559180000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>913.931000</v>
+        <v>913.93100000000004</v>
       </c>
       <c r="I12" s="1">
-        <v>-166.398000</v>
+        <v>-166.398</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>7412.107764</v>
+        <v>7412.1077640000003</v>
       </c>
       <c r="L12" s="1">
-        <v>2.058919</v>
+        <v>2.0589189999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>938.203000</v>
+        <v>938.20299999999997</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.756000</v>
+        <v>-118.756</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>7422.320392</v>
+        <v>7422.3203919999996</v>
       </c>
       <c r="Q12" s="1">
-        <v>2.061756</v>
+        <v>2.0617559999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>945.436000</v>
+        <v>945.43600000000004</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.730000</v>
+        <v>-102.73</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>7432.520651</v>
+        <v>7432.5206509999998</v>
       </c>
       <c r="V12" s="1">
-        <v>2.064589</v>
+        <v>2.0645889999999998</v>
       </c>
       <c r="W12" s="1">
-        <v>952.149000</v>
+        <v>952.149</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.070700</v>
+        <v>-88.070700000000002</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>7442.720844</v>
+        <v>7442.7208440000004</v>
       </c>
       <c r="AA12" s="1">
-        <v>2.067422</v>
+        <v>2.0674220000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>959.509000</v>
+        <v>959.50900000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.438900</v>
+        <v>-76.438900000000004</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>7452.905231</v>
+        <v>7452.9052309999997</v>
       </c>
       <c r="AF12" s="1">
-        <v>2.070251</v>
+        <v>2.0702509999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>964.255000</v>
+        <v>964.255</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.175100</v>
+        <v>-74.1751</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>7462.774593</v>
+        <v>7462.7745930000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>2.072993</v>
+        <v>2.0729929999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>971.461000</v>
+        <v>971.46100000000001</v>
       </c>
       <c r="AM12" s="1">
-        <v>-78.755600</v>
+        <v>-78.755600000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>7473.514963</v>
+        <v>7473.5149629999996</v>
       </c>
       <c r="AP12" s="1">
-        <v>2.075976</v>
+        <v>2.0759759999999998</v>
       </c>
       <c r="AQ12" s="1">
-        <v>979.494000</v>
+        <v>979.49400000000003</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.055900</v>
+        <v>-90.055899999999994</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>7484.490437</v>
+        <v>7484.4904370000004</v>
       </c>
       <c r="AU12" s="1">
-        <v>2.079025</v>
+        <v>2.0790250000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>989.208000</v>
+        <v>989.20799999999997</v>
       </c>
       <c r="AW12" s="1">
-        <v>-107.410000</v>
+        <v>-107.41</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>7495.624630</v>
+        <v>7495.6246300000003</v>
       </c>
       <c r="AZ12" s="1">
-        <v>2.082118</v>
+        <v>2.0821179999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>997.309000</v>
+        <v>997.30899999999997</v>
       </c>
       <c r="BB12" s="1">
-        <v>-122.742000</v>
+        <v>-122.742</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>7506.507383</v>
+        <v>7506.5073830000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>2.085141</v>
+        <v>2.0851410000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1034.890000</v>
+        <v>1034.8900000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-193.719000</v>
+        <v>-193.71899999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>7517.285450</v>
+        <v>7517.2854500000003</v>
       </c>
       <c r="BJ12" s="1">
-        <v>2.088135</v>
+        <v>2.0881349999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1099.470000</v>
+        <v>1099.47</v>
       </c>
       <c r="BL12" s="1">
-        <v>-309.925000</v>
+        <v>-309.92500000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>7528.305531</v>
       </c>
       <c r="BO12" s="1">
-        <v>2.091196</v>
+        <v>2.0911960000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1205.110000</v>
+        <v>1205.1099999999999</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-494.625000</v>
+        <v>-494.625</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>7539.438236</v>
       </c>
       <c r="BT12" s="1">
-        <v>2.094288</v>
+        <v>2.0942880000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1325.170000</v>
+        <v>1325.17</v>
       </c>
       <c r="BV12" s="1">
-        <v>-698.323000</v>
+        <v>-698.32299999999998</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>7550.551102</v>
+        <v>7550.5511020000004</v>
       </c>
       <c r="BY12" s="1">
         <v>2.097375</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1460.000000</v>
+        <v>1460</v>
       </c>
       <c r="CA12" s="1">
-        <v>-915.836000</v>
+        <v>-915.83600000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>7562.332574</v>
       </c>
       <c r="CD12" s="1">
-        <v>2.100648</v>
+        <v>2.1006480000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1816.490000</v>
+        <v>1816.49</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1433.980000</v>
+        <v>-1433.98</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>7391.225232</v>
+        <v>7391.2252319999998</v>
       </c>
       <c r="B13" s="1">
         <v>2.053118</v>
       </c>
       <c r="C13" s="1">
-        <v>895.615000</v>
+        <v>895.61500000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-195.651000</v>
+        <v>-195.65100000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>7401.958130</v>
+        <v>7401.95813</v>
       </c>
       <c r="G13" s="1">
-        <v>2.056099</v>
+        <v>2.0560990000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>913.893000</v>
+        <v>913.89300000000003</v>
       </c>
       <c r="I13" s="1">
-        <v>-166.606000</v>
+        <v>-166.60599999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>7412.488693</v>
+        <v>7412.4886930000002</v>
       </c>
       <c r="L13" s="1">
-        <v>2.059025</v>
+        <v>2.0590250000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>938.322000</v>
+        <v>938.322</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.669000</v>
+        <v>-118.669</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>7422.708760</v>
+        <v>7422.7087600000004</v>
       </c>
       <c r="Q13" s="1">
-        <v>2.061864</v>
+        <v>2.0618639999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>945.437000</v>
+        <v>945.43700000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.802000</v>
+        <v>-102.80200000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>7432.862361</v>
+        <v>7432.8623610000004</v>
       </c>
       <c r="V13" s="1">
-        <v>2.064684</v>
+        <v>2.0646840000000002</v>
       </c>
       <c r="W13" s="1">
-        <v>952.078000</v>
+        <v>952.07799999999997</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.091800</v>
+        <v>-88.091800000000006</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>7443.069533</v>
+        <v>7443.0695329999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>2.067519</v>
+        <v>2.0675189999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>959.425000</v>
+        <v>959.42499999999995</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.377100</v>
+        <v>-76.377099999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>7453.250910</v>
+        <v>7453.2509099999997</v>
       </c>
       <c r="AF13" s="1">
-        <v>2.070347</v>
+        <v>2.0703469999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>964.263000</v>
+        <v>964.26300000000003</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.210700</v>
+        <v>-74.210700000000003</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>7463.189750</v>
+        <v>7463.1897499999995</v>
       </c>
       <c r="AK13" s="1">
         <v>2.073108</v>
       </c>
       <c r="AL13" s="1">
-        <v>971.478000</v>
+        <v>971.47799999999995</v>
       </c>
       <c r="AM13" s="1">
-        <v>-78.756100</v>
+        <v>-78.756100000000004</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>7473.938082</v>
+        <v>7473.9380819999997</v>
       </c>
       <c r="AP13" s="1">
-        <v>2.076094</v>
+        <v>2.0760939999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>979.488000</v>
+        <v>979.48800000000006</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.067600</v>
+        <v>-90.067599999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>7484.798453</v>
+        <v>7484.7984530000003</v>
       </c>
       <c r="AU13" s="1">
-        <v>2.079111</v>
+        <v>2.0791110000000002</v>
       </c>
       <c r="AV13" s="1">
-        <v>989.191000</v>
+        <v>989.19100000000003</v>
       </c>
       <c r="AW13" s="1">
-        <v>-107.419000</v>
+        <v>-107.419</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>7495.912806</v>
+        <v>7495.9128060000003</v>
       </c>
       <c r="AZ13" s="1">
         <v>2.082198</v>
       </c>
       <c r="BA13" s="1">
-        <v>997.287000</v>
+        <v>997.28700000000003</v>
       </c>
       <c r="BB13" s="1">
-        <v>-122.728000</v>
+        <v>-122.72799999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>7506.865480</v>
+        <v>7506.8654800000004</v>
       </c>
       <c r="BE13" s="1">
-        <v>2.085240</v>
+        <v>2.0852400000000002</v>
       </c>
       <c r="BF13" s="1">
-        <v>1034.910000</v>
+        <v>1034.9100000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-193.716000</v>
+        <v>-193.71600000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>7517.663369</v>
+        <v>7517.6633689999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>2.088240</v>
+        <v>2.0882399999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1099.510000</v>
+        <v>1099.51</v>
       </c>
       <c r="BL13" s="1">
-        <v>-309.920000</v>
+        <v>-309.92</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>7528.725147</v>
+        <v>7528.7251470000001</v>
       </c>
       <c r="BO13" s="1">
         <v>2.091313</v>
       </c>
       <c r="BP13" s="1">
-        <v>1205.130000</v>
+        <v>1205.1300000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-494.634000</v>
+        <v>-494.63400000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>7539.852396</v>
+        <v>7539.8523960000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>2.094403</v>
+        <v>2.0944029999999998</v>
       </c>
       <c r="BU13" s="1">
-        <v>1325.240000</v>
+        <v>1325.24</v>
       </c>
       <c r="BV13" s="1">
-        <v>-698.332000</v>
+        <v>-698.33199999999999</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>7550.982622</v>
+        <v>7550.9826220000004</v>
       </c>
       <c r="BY13" s="1">
-        <v>2.097495</v>
+        <v>2.0974949999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1459.940000</v>
+        <v>1459.94</v>
       </c>
       <c r="CA13" s="1">
-        <v>-915.938000</v>
+        <v>-915.93799999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>7562.879663</v>
+        <v>7562.8796629999997</v>
       </c>
       <c r="CD13" s="1">
-        <v>2.100800</v>
+        <v>2.1008</v>
       </c>
       <c r="CE13" s="1">
-        <v>1818.020000</v>
+        <v>1818.02</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1433.970000</v>
+        <v>-1433.97</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>7391.871023</v>
+        <v>7391.8710229999997</v>
       </c>
       <c r="B14" s="1">
-        <v>2.053298</v>
+        <v>2.0532979999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>895.612000</v>
+        <v>895.61199999999997</v>
       </c>
       <c r="D14" s="1">
-        <v>-195.577000</v>
+        <v>-195.577</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>7402.341041</v>
+        <v>7402.3410409999997</v>
       </c>
       <c r="G14" s="1">
         <v>2.056206</v>
       </c>
       <c r="H14" s="1">
-        <v>913.836000</v>
+        <v>913.83600000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-166.387000</v>
+        <v>-166.387</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>7412.834435</v>
+        <v>7412.8344349999998</v>
       </c>
       <c r="L14" s="1">
-        <v>2.059121</v>
+        <v>2.0591210000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>938.611000</v>
+        <v>938.61099999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.629000</v>
+        <v>-118.629</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>7423.059430</v>
+        <v>7423.0594300000002</v>
       </c>
       <c r="Q14" s="1">
-        <v>2.061961</v>
+        <v>2.0619610000000002</v>
       </c>
       <c r="R14" s="1">
-        <v>945.334000</v>
+        <v>945.33399999999995</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.989000</v>
+        <v>-102.989</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>7433.208569</v>
+        <v>7433.2085690000004</v>
       </c>
       <c r="V14" s="1">
-        <v>2.064780</v>
+        <v>2.0647799999999998</v>
       </c>
       <c r="W14" s="1">
-        <v>952.110000</v>
+        <v>952.11</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.136100</v>
+        <v>-88.136099999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>7443.421691</v>
+        <v>7443.4216909999996</v>
       </c>
       <c r="AA14" s="1">
-        <v>2.067617</v>
+        <v>2.0676169999999998</v>
       </c>
       <c r="AB14" s="1">
-        <v>959.450000</v>
+        <v>959.45</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.391700</v>
+        <v>-76.3917</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>7453.661133</v>
+        <v>7453.6611329999996</v>
       </c>
       <c r="AF14" s="1">
-        <v>2.070461</v>
+        <v>2.0704609999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>964.238000</v>
+        <v>964.23800000000006</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.209200</v>
+        <v>-74.209199999999996</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>7463.473985</v>
+        <v>7463.4739849999996</v>
       </c>
       <c r="AK14" s="1">
-        <v>2.073187</v>
+        <v>2.0731869999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>971.466000</v>
+        <v>971.46600000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-78.755900</v>
+        <v>-78.755899999999997</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>7474.237171</v>
+        <v>7474.2371709999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>2.076177</v>
+        <v>2.0761769999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>979.510000</v>
+        <v>979.51</v>
       </c>
       <c r="AR14" s="1">
-        <v>-90.063200</v>
+        <v>-90.063199999999995</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>7485.161552</v>
+        <v>7485.1615519999996</v>
       </c>
       <c r="AU14" s="1">
-        <v>2.079212</v>
+        <v>2.0792120000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>989.203000</v>
+        <v>989.20299999999997</v>
       </c>
       <c r="AW14" s="1">
-        <v>-107.417000</v>
+        <v>-107.417</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>7496.270917</v>
+        <v>7496.2709169999998</v>
       </c>
       <c r="AZ14" s="1">
-        <v>2.082297</v>
+        <v>2.0822970000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>997.285000</v>
+        <v>997.28499999999997</v>
       </c>
       <c r="BB14" s="1">
-        <v>-122.719000</v>
+        <v>-122.71899999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>7507.231047</v>
+        <v>7507.2310470000002</v>
       </c>
       <c r="BE14" s="1">
-        <v>2.085342</v>
+        <v>2.0853419999999998</v>
       </c>
       <c r="BF14" s="1">
-        <v>1034.890000</v>
+        <v>1034.8900000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-193.719000</v>
+        <v>-193.71899999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>7518.413320</v>
+        <v>7518.4133199999997</v>
       </c>
       <c r="BJ14" s="1">
-        <v>2.088448</v>
+        <v>2.0884480000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1099.490000</v>
+        <v>1099.49</v>
       </c>
       <c r="BL14" s="1">
-        <v>-309.896000</v>
+        <v>-309.89600000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>7529.138315</v>
+        <v>7529.1383150000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>2.091427</v>
+        <v>2.0914269999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1205.110000</v>
+        <v>1205.1099999999999</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-494.637000</v>
+        <v>-494.637</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>7540.293339</v>
+        <v>7540.2933389999998</v>
       </c>
       <c r="BT14" s="1">
-        <v>2.094526</v>
+        <v>2.0945260000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1325.310000</v>
+        <v>1325.31</v>
       </c>
       <c r="BV14" s="1">
-        <v>-698.340000</v>
+        <v>-698.34</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>7551.403724</v>
+        <v>7551.4037239999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>2.097612</v>
+        <v>2.0976119999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1460.060000</v>
+        <v>1460.06</v>
       </c>
       <c r="CA14" s="1">
-        <v>-915.969000</v>
+        <v>-915.96900000000005</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>7563.418845</v>
+        <v>7563.4188450000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>2.100950</v>
+        <v>2.1009500000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1816.670000</v>
+        <v>1816.67</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1432.910000</v>
+        <v>-1432.91</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>7392.252911</v>
+        <v>7392.2529109999996</v>
       </c>
       <c r="B15" s="1">
         <v>2.053404</v>
       </c>
       <c r="C15" s="1">
-        <v>895.444000</v>
+        <v>895.44399999999996</v>
       </c>
       <c r="D15" s="1">
-        <v>-195.658000</v>
+        <v>-195.65799999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>7402.683312</v>
+        <v>7402.6833120000001</v>
       </c>
       <c r="G15" s="1">
-        <v>2.056301</v>
+        <v>2.0563009999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>913.971000</v>
+        <v>913.971</v>
       </c>
       <c r="I15" s="1">
-        <v>-166.167000</v>
+        <v>-166.167</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>7413.181603</v>
       </c>
       <c r="L15" s="1">
-        <v>2.059217</v>
+        <v>2.0592169999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>938.362000</v>
+        <v>938.36199999999997</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.877000</v>
+        <v>-118.877</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>7423.408613</v>
+        <v>7423.4086129999996</v>
       </c>
       <c r="Q15" s="1">
-        <v>2.062058</v>
+        <v>2.0620579999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>945.311000</v>
+        <v>945.31100000000004</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.948000</v>
+        <v>-102.94799999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>7433.617789</v>
+        <v>7433.6177889999999</v>
       </c>
       <c r="V15" s="1">
-        <v>2.064894</v>
+        <v>2.0648939999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>952.136000</v>
+        <v>952.13599999999997</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.116200</v>
+        <v>-88.116200000000006</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>7443.846303</v>
+        <v>7443.8463030000003</v>
       </c>
       <c r="AA15" s="1">
-        <v>2.067735</v>
+        <v>2.0677349999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>959.334000</v>
+        <v>959.33399999999995</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.448400</v>
+        <v>-76.448400000000007</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>7453.960190</v>
+        <v>7453.9601899999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>2.070544</v>
+        <v>2.0705439999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>964.245000</v>
+        <v>964.245</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.191500</v>
+        <v>-74.191500000000005</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>7463.820656</v>
+        <v>7463.8206559999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>2.073284</v>
+        <v>2.0732840000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>971.495000</v>
+        <v>971.495</v>
       </c>
       <c r="AM15" s="1">
-        <v>-78.751300</v>
+        <v>-78.751300000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>7474.596242</v>
+        <v>7474.5962419999996</v>
       </c>
       <c r="AP15" s="1">
-        <v>2.076277</v>
+        <v>2.0762770000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>979.486000</v>
+        <v>979.48599999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.062300</v>
+        <v>-90.062299999999993</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>7485.530547</v>
+        <v>7485.5305470000003</v>
       </c>
       <c r="AU15" s="1">
-        <v>2.079314</v>
+        <v>2.0793140000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>989.192000</v>
+        <v>989.19200000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-107.391000</v>
+        <v>-107.39100000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>7496.669734</v>
+        <v>7496.6697340000001</v>
       </c>
       <c r="AZ15" s="1">
         <v>2.082408</v>
       </c>
       <c r="BA15" s="1">
-        <v>997.291000</v>
+        <v>997.29100000000005</v>
       </c>
       <c r="BB15" s="1">
-        <v>-122.733000</v>
+        <v>-122.733</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>7507.951702</v>
+        <v>7507.9517020000003</v>
       </c>
       <c r="BE15" s="1">
-        <v>2.085542</v>
+        <v>2.0855419999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1034.910000</v>
+        <v>1034.9100000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-193.724000</v>
+        <v>-193.72399999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>7518.789288</v>
+        <v>7518.7892879999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>2.088553</v>
+        <v>2.0885530000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1099.520000</v>
+        <v>1099.52</v>
       </c>
       <c r="BL15" s="1">
-        <v>-309.879000</v>
+        <v>-309.87900000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>7529.544537</v>
+        <v>7529.5445369999998</v>
       </c>
       <c r="BO15" s="1">
-        <v>2.091540</v>
+        <v>2.0915400000000002</v>
       </c>
       <c r="BP15" s="1">
-        <v>1205.110000</v>
+        <v>1205.1099999999999</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-494.627000</v>
+        <v>-494.62700000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>7540.719898</v>
+        <v>7540.7198980000003</v>
       </c>
       <c r="BT15" s="1">
-        <v>2.094644</v>
+        <v>2.0946440000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>1325.260000</v>
+        <v>1325.26</v>
       </c>
       <c r="BV15" s="1">
-        <v>-698.375000</v>
+        <v>-698.375</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>7552.133372</v>
+        <v>7552.1333720000002</v>
       </c>
       <c r="BY15" s="1">
-        <v>2.097815</v>
+        <v>2.0978150000000002</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1459.980000</v>
+        <v>1459.98</v>
       </c>
       <c r="CA15" s="1">
-        <v>-915.911000</v>
+        <v>-915.91099999999994</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>7564.279867</v>
+        <v>7564.2798670000002</v>
       </c>
       <c r="CD15" s="1">
-        <v>2.101189</v>
+        <v>2.1011890000000002</v>
       </c>
       <c r="CE15" s="1">
-        <v>1818.370000</v>
+        <v>1818.37</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1433.650000</v>
+        <v>-1433.65</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>7392.593662</v>
+        <v>7392.5936620000002</v>
       </c>
       <c r="B16" s="1">
-        <v>2.053498</v>
+        <v>2.0534979999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>895.462000</v>
+        <v>895.46199999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-195.690000</v>
+        <v>-195.69</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>7403.032465</v>
+        <v>7403.0324650000002</v>
       </c>
       <c r="G16" s="1">
-        <v>2.056398</v>
+        <v>2.0563980000000002</v>
       </c>
       <c r="H16" s="1">
-        <v>914.293000</v>
+        <v>914.29300000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-166.259000</v>
+        <v>-166.25899999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>7413.595762</v>
+        <v>7413.5957619999999</v>
       </c>
       <c r="L16" s="1">
-        <v>2.059332</v>
+        <v>2.0593319999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>938.191000</v>
+        <v>938.19100000000003</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.840000</v>
+        <v>-118.84</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>7423.813845</v>
+        <v>7423.8138449999997</v>
       </c>
       <c r="Q16" s="1">
-        <v>2.062171</v>
+        <v>2.0621710000000002</v>
       </c>
       <c r="R16" s="1">
-        <v>945.282000</v>
+        <v>945.28200000000004</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.965000</v>
+        <v>-102.965</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>7433.919337</v>
+        <v>7433.9193370000003</v>
       </c>
       <c r="V16" s="1">
         <v>2.064978</v>
       </c>
       <c r="W16" s="1">
-        <v>952.143000</v>
+        <v>952.14300000000003</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.075800</v>
+        <v>-88.075800000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>7444.125514</v>
+        <v>7444.1255140000003</v>
       </c>
       <c r="AA16" s="1">
-        <v>2.067813</v>
+        <v>2.0678130000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>959.510000</v>
+        <v>959.51</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.406800</v>
+        <v>-76.406800000000004</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>7454.302925</v>
       </c>
       <c r="AF16" s="1">
-        <v>2.070640</v>
+        <v>2.07064</v>
       </c>
       <c r="AG16" s="1">
-        <v>964.232000</v>
+        <v>964.23199999999997</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.212500</v>
+        <v>-74.212500000000006</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>7464.171857</v>
+        <v>7464.1718570000003</v>
       </c>
       <c r="AK16" s="1">
-        <v>2.073381</v>
+        <v>2.0733809999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>971.498000</v>
+        <v>971.49800000000005</v>
       </c>
       <c r="AM16" s="1">
-        <v>-78.755400</v>
+        <v>-78.755399999999995</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>7474.956833</v>
+        <v>7474.9568330000002</v>
       </c>
       <c r="AP16" s="1">
-        <v>2.076377</v>
+        <v>2.0763769999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>979.495000</v>
+        <v>979.495</v>
       </c>
       <c r="AR16" s="1">
-        <v>-90.079100</v>
+        <v>-90.079099999999997</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>7486.261156</v>
+        <v>7486.2611559999996</v>
       </c>
       <c r="AU16" s="1">
-        <v>2.079517</v>
+        <v>2.0795170000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>989.211000</v>
+        <v>989.21100000000001</v>
       </c>
       <c r="AW16" s="1">
-        <v>-107.404000</v>
+        <v>-107.404</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>7497.346245</v>
+        <v>7497.3462449999997</v>
       </c>
       <c r="AZ16" s="1">
-        <v>2.082596</v>
+        <v>2.0825960000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>997.314000</v>
+        <v>997.31399999999996</v>
       </c>
       <c r="BB16" s="1">
-        <v>-122.730000</v>
+        <v>-122.73</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>7508.316757</v>
+        <v>7508.3167569999996</v>
       </c>
       <c r="BE16" s="1">
-        <v>2.085644</v>
+        <v>2.0856439999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1034.910000</v>
+        <v>1034.9100000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-193.733000</v>
+        <v>-193.733</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>7519.163272</v>
+        <v>7519.1632719999998</v>
       </c>
       <c r="BJ16" s="1">
-        <v>2.088656</v>
+        <v>2.0886559999999998</v>
       </c>
       <c r="BK16" s="1">
-        <v>1099.510000</v>
+        <v>1099.51</v>
       </c>
       <c r="BL16" s="1">
-        <v>-309.892000</v>
+        <v>-309.892</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>7529.943817</v>
+        <v>7529.9438170000003</v>
       </c>
       <c r="BO16" s="1">
-        <v>2.091651</v>
+        <v>2.0916510000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1205.110000</v>
+        <v>1205.1099999999999</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-494.668000</v>
+        <v>-494.66800000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>7541.444090</v>
+        <v>7541.44409</v>
       </c>
       <c r="BT16" s="1">
         <v>2.094846</v>
       </c>
       <c r="BU16" s="1">
-        <v>1325.260000</v>
+        <v>1325.26</v>
       </c>
       <c r="BV16" s="1">
-        <v>-698.341000</v>
+        <v>-698.34100000000001</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>7552.252380</v>
+        <v>7552.2523799999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>2.097848</v>
+        <v>2.0978479999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1460.060000</v>
+        <v>1460.06</v>
       </c>
       <c r="CA16" s="1">
-        <v>-915.926000</v>
+        <v>-915.92600000000004</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>7564.500091</v>
+        <v>7564.5000909999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>2.101250</v>
+        <v>2.1012499999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>1818.110000</v>
+        <v>1818.11</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1433.710000</v>
+        <v>-1433.71</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>7392.934413</v>
+        <v>7392.9344129999999</v>
       </c>
       <c r="B17" s="1">
-        <v>2.053593</v>
+        <v>2.0535929999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>895.483000</v>
+        <v>895.48299999999995</v>
       </c>
       <c r="D17" s="1">
-        <v>-195.631000</v>
+        <v>-195.631</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>7403.445632</v>
+        <v>7403.4456319999999</v>
       </c>
       <c r="G17" s="1">
-        <v>2.056513</v>
+        <v>2.0565129999999998</v>
       </c>
       <c r="H17" s="1">
-        <v>914.086000</v>
+        <v>914.08600000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-166.457000</v>
+        <v>-166.45699999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>7413.874515</v>
+        <v>7413.8745150000004</v>
       </c>
       <c r="L17" s="1">
-        <v>2.059410</v>
+        <v>2.0594100000000002</v>
       </c>
       <c r="M17" s="1">
-        <v>938.278000</v>
+        <v>938.27800000000002</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.888000</v>
+        <v>-118.88800000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>7424.106997</v>
+        <v>7424.1069969999999</v>
       </c>
       <c r="Q17" s="1">
         <v>2.062252</v>
       </c>
       <c r="R17" s="1">
-        <v>945.293000</v>
+        <v>945.29300000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.967000</v>
+        <v>-102.967</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>7434.261608</v>
+        <v>7434.2616079999998</v>
       </c>
       <c r="V17" s="1">
-        <v>2.065073</v>
+        <v>2.0650729999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>952.117000</v>
+        <v>952.11699999999996</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.121300</v>
+        <v>-88.121300000000005</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>7444.475217</v>
+        <v>7444.4752170000002</v>
       </c>
       <c r="AA17" s="1">
-        <v>2.067910</v>
+        <v>2.0679099999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>959.482000</v>
+        <v>959.48199999999997</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.470800</v>
+        <v>-76.470799999999997</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>7454.645662</v>
+        <v>7454.6456619999999</v>
       </c>
       <c r="AF17" s="1">
         <v>2.070735</v>
       </c>
       <c r="AG17" s="1">
-        <v>964.233000</v>
+        <v>964.23299999999995</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.228800</v>
+        <v>-74.228800000000007</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>7464.867215</v>
+        <v>7464.8672150000002</v>
       </c>
       <c r="AK17" s="1">
-        <v>2.073574</v>
+        <v>2.0735739999999998</v>
       </c>
       <c r="AL17" s="1">
-        <v>971.482000</v>
+        <v>971.48199999999997</v>
       </c>
       <c r="AM17" s="1">
-        <v>-78.724800</v>
+        <v>-78.724800000000002</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>7475.684477</v>
+        <v>7475.6844769999998</v>
       </c>
       <c r="AP17" s="1">
-        <v>2.076579</v>
+        <v>2.0765790000000002</v>
       </c>
       <c r="AQ17" s="1">
-        <v>979.512000</v>
+        <v>979.51199999999994</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.085900</v>
+        <v>-90.085899999999995</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>7486.643074</v>
+        <v>7486.6430739999996</v>
       </c>
       <c r="AU17" s="1">
-        <v>2.079623</v>
+        <v>2.0796230000000002</v>
       </c>
       <c r="AV17" s="1">
-        <v>989.208000</v>
+        <v>989.20799999999997</v>
       </c>
       <c r="AW17" s="1">
-        <v>-107.399000</v>
+        <v>-107.399</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>7497.706835</v>
       </c>
       <c r="AZ17" s="1">
-        <v>2.082696</v>
+        <v>2.0826959999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>997.305000</v>
+        <v>997.30499999999995</v>
       </c>
       <c r="BB17" s="1">
-        <v>-122.717000</v>
+        <v>-122.717</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>7508.675365</v>
+        <v>7508.6753650000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>2.085743</v>
+        <v>2.0857429999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1034.900000</v>
+        <v>1034.9000000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-193.730000</v>
+        <v>-193.73</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>7519.866598</v>
+        <v>7519.8665979999996</v>
       </c>
       <c r="BJ17" s="1">
-        <v>2.088852</v>
+        <v>2.0888520000000002</v>
       </c>
       <c r="BK17" s="1">
-        <v>1099.530000</v>
+        <v>1099.53</v>
       </c>
       <c r="BL17" s="1">
-        <v>-309.892000</v>
+        <v>-309.892</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>7530.669463</v>
+        <v>7530.6694630000002</v>
       </c>
       <c r="BO17" s="1">
         <v>2.091853</v>
       </c>
       <c r="BP17" s="1">
-        <v>1205.110000</v>
+        <v>1205.1099999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-494.593000</v>
+        <v>-494.59300000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>7541.563627</v>
+        <v>7541.5636270000005</v>
       </c>
       <c r="BT17" s="1">
-        <v>2.094879</v>
+        <v>2.0948790000000002</v>
       </c>
       <c r="BU17" s="1">
-        <v>1325.220000</v>
+        <v>1325.22</v>
       </c>
       <c r="BV17" s="1">
-        <v>-698.299000</v>
+        <v>-698.29899999999998</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>7552.700299</v>
+        <v>7552.7002990000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>2.097972</v>
+        <v>2.0979719999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1459.960000</v>
+        <v>1459.96</v>
       </c>
       <c r="CA17" s="1">
-        <v>-915.957000</v>
+        <v>-915.95699999999999</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>7565.020394</v>
+        <v>7565.0203940000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>2.101395</v>
+        <v>2.1013950000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1817.120000</v>
+        <v>1817.12</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1432.940000</v>
+        <v>-1432.94</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>7393.367421</v>
+        <v>7393.3674209999999</v>
       </c>
       <c r="B18" s="1">
-        <v>2.053713</v>
+        <v>2.0537130000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>895.436000</v>
+        <v>895.43600000000004</v>
       </c>
       <c r="D18" s="1">
-        <v>-195.734000</v>
+        <v>-195.73400000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>7403.725377</v>
+        <v>7403.7253769999998</v>
       </c>
       <c r="G18" s="1">
-        <v>2.056590</v>
+        <v>2.0565899999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>913.916000</v>
+        <v>913.91600000000005</v>
       </c>
       <c r="I18" s="1">
-        <v>-166.295000</v>
+        <v>-166.29499999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>7414.217746</v>
+        <v>7414.2177460000003</v>
       </c>
       <c r="L18" s="1">
-        <v>2.059505</v>
+        <v>2.0595050000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>938.230000</v>
+        <v>938.23</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.951000</v>
+        <v>-118.95099999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>7424.457654</v>
+        <v>7424.4576539999998</v>
       </c>
       <c r="Q18" s="1">
-        <v>2.062349</v>
+        <v>2.0623490000000002</v>
       </c>
       <c r="R18" s="1">
-        <v>945.284000</v>
+        <v>945.28399999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.924000</v>
+        <v>-102.92400000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>7434.605628</v>
+        <v>7434.6056280000003</v>
       </c>
       <c r="V18" s="1">
-        <v>2.065168</v>
+        <v>2.0651679999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>952.055000</v>
+        <v>952.05499999999995</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.045700</v>
+        <v>-88.045699999999997</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>7445.159177</v>
+        <v>7445.1591770000005</v>
       </c>
       <c r="AA18" s="1">
-        <v>2.068100</v>
+        <v>2.0680999999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>959.446000</v>
+        <v>959.44600000000003</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.447900</v>
+        <v>-76.447900000000004</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>7455.331131</v>
+        <v>7455.3311309999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>2.070925</v>
+        <v>2.0709249999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>964.258000</v>
+        <v>964.25800000000004</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.247700</v>
+        <v>-74.247699999999995</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>7465.216894</v>
+        <v>7465.2168940000001</v>
       </c>
       <c r="AK18" s="1">
         <v>2.073671</v>
       </c>
       <c r="AL18" s="1">
-        <v>971.472000</v>
+        <v>971.47199999999998</v>
       </c>
       <c r="AM18" s="1">
-        <v>-78.748700</v>
+        <v>-78.748699999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>7476.059975</v>
+        <v>7476.0599750000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>2.076683</v>
+        <v>2.0766830000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>979.509000</v>
+        <v>979.50900000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.064300</v>
+        <v>-90.064300000000003</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>7487.008129</v>
+        <v>7487.0081289999998</v>
       </c>
       <c r="AU18" s="1">
-        <v>2.079724</v>
+        <v>2.0797240000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>989.182000</v>
+        <v>989.18200000000002</v>
       </c>
       <c r="AW18" s="1">
-        <v>-107.383000</v>
+        <v>-107.383</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>7498.374452</v>
       </c>
       <c r="AZ18" s="1">
-        <v>2.082882</v>
+        <v>2.0828820000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>997.295000</v>
+        <v>997.29499999999996</v>
       </c>
       <c r="BB18" s="1">
-        <v>-122.725000</v>
+        <v>-122.72499999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>7509.346979</v>
+        <v>7509.3469789999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>2.085930</v>
+        <v>2.0859299999999998</v>
       </c>
       <c r="BF18" s="1">
-        <v>1034.920000</v>
+        <v>1034.92</v>
       </c>
       <c r="BG18" s="1">
-        <v>-193.730000</v>
+        <v>-193.73</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>7520.315480</v>
+        <v>7520.3154800000002</v>
       </c>
       <c r="BJ18" s="1">
-        <v>2.088977</v>
+        <v>2.0889769999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1099.520000</v>
+        <v>1099.52</v>
       </c>
       <c r="BL18" s="1">
-        <v>-309.880000</v>
+        <v>-309.88</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>7530.783544</v>
+        <v>7530.7835439999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>2.091884</v>
+        <v>2.0918839999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1205.090000</v>
+        <v>1205.0899999999999</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-494.630000</v>
+        <v>-494.63</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>7541.999609</v>
+        <v>7541.9996090000004</v>
       </c>
       <c r="BT18" s="1">
-        <v>2.095000</v>
+        <v>2.0950000000000002</v>
       </c>
       <c r="BU18" s="1">
-        <v>1325.290000</v>
+        <v>1325.29</v>
       </c>
       <c r="BV18" s="1">
-        <v>-698.279000</v>
+        <v>-698.279</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>7553.130821</v>
+        <v>7553.1308209999997</v>
       </c>
       <c r="BY18" s="1">
-        <v>2.098092</v>
+        <v>2.0980919999999998</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1459.990000</v>
+        <v>1459.99</v>
       </c>
       <c r="CA18" s="1">
-        <v>-915.985000</v>
+        <v>-915.98500000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>7565.535738</v>
+        <v>7565.5357379999996</v>
       </c>
       <c r="CD18" s="1">
-        <v>2.101538</v>
+        <v>2.1015380000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1817.440000</v>
+        <v>1817.44</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1433.140000</v>
+        <v>-1433.14</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>7393.636253</v>
+        <v>7393.6362529999997</v>
       </c>
       <c r="B19" s="1">
-        <v>2.053788</v>
+        <v>2.0537879999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>895.573000</v>
+        <v>895.57299999999998</v>
       </c>
       <c r="D19" s="1">
-        <v>-195.654000</v>
+        <v>-195.654</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>7404.070122</v>
+        <v>7404.0701220000001</v>
       </c>
       <c r="G19" s="1">
         <v>2.056686</v>
       </c>
       <c r="H19" s="1">
-        <v>913.743000</v>
+        <v>913.74300000000005</v>
       </c>
       <c r="I19" s="1">
-        <v>-166.259000</v>
+        <v>-166.25899999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>7414.565441</v>
+        <v>7414.5654409999997</v>
       </c>
       <c r="L19" s="1">
-        <v>2.059602</v>
+        <v>2.0596019999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>938.176000</v>
+        <v>938.17600000000004</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.691000</v>
+        <v>-118.691</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>7424.804893</v>
+        <v>7424.8048930000004</v>
       </c>
       <c r="Q19" s="1">
         <v>2.062446</v>
       </c>
       <c r="R19" s="1">
-        <v>945.495000</v>
+        <v>945.495</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.814000</v>
+        <v>-102.81399999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>7435.289782</v>
+        <v>7435.2897819999998</v>
       </c>
       <c r="V19" s="1">
-        <v>2.065358</v>
+        <v>2.0653579999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>952.133000</v>
+        <v>952.13300000000004</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.070200</v>
+        <v>-88.0702</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>7445.521752</v>
+        <v>7445.5217519999997</v>
       </c>
       <c r="AA19" s="1">
-        <v>2.068200</v>
+        <v>2.0682</v>
       </c>
       <c r="AB19" s="1">
-        <v>959.597000</v>
+        <v>959.59699999999998</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.476700</v>
+        <v>-76.476699999999994</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>7455.679323</v>
+        <v>7455.6793230000003</v>
       </c>
       <c r="AF19" s="1">
-        <v>2.071022</v>
+        <v>2.0710220000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>964.222000</v>
+        <v>964.22199999999998</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.240200</v>
+        <v>-74.240200000000002</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>7465.566574</v>
+        <v>7465.5665740000004</v>
       </c>
       <c r="AK19" s="1">
-        <v>2.073768</v>
+        <v>2.0737679999999998</v>
       </c>
       <c r="AL19" s="1">
-        <v>971.473000</v>
+        <v>971.47299999999996</v>
       </c>
       <c r="AM19" s="1">
-        <v>-78.751500</v>
+        <v>-78.751499999999993</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>7476.449296</v>
+        <v>7476.4492959999998</v>
       </c>
       <c r="AP19" s="1">
-        <v>2.076791</v>
+        <v>2.0767910000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>979.513000</v>
+        <v>979.51300000000003</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.064500</v>
+        <v>-90.064499999999995</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>7487.681696</v>
+        <v>7487.6816959999996</v>
       </c>
       <c r="AU19" s="1">
-        <v>2.079912</v>
+        <v>2.0799120000000002</v>
       </c>
       <c r="AV19" s="1">
-        <v>989.195000</v>
+        <v>989.19500000000005</v>
       </c>
       <c r="AW19" s="1">
-        <v>-107.393000</v>
+        <v>-107.393</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>7498.808978</v>
@@ -5000,1904 +5416,1905 @@
         <v>2.083002</v>
       </c>
       <c r="BA19" s="1">
-        <v>997.302000</v>
+        <v>997.30200000000002</v>
       </c>
       <c r="BB19" s="1">
-        <v>-122.730000</v>
+        <v>-122.73</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>7509.786899</v>
+        <v>7509.7868989999997</v>
       </c>
       <c r="BE19" s="1">
         <v>2.086052</v>
       </c>
       <c r="BF19" s="1">
-        <v>1034.900000</v>
+        <v>1034.9000000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-193.723000</v>
+        <v>-193.72300000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>7520.719750</v>
+        <v>7520.7197500000002</v>
       </c>
       <c r="BJ19" s="1">
         <v>2.089089</v>
       </c>
       <c r="BK19" s="1">
-        <v>1099.530000</v>
+        <v>1099.53</v>
       </c>
       <c r="BL19" s="1">
-        <v>-309.878000</v>
+        <v>-309.87799999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>7531.211095</v>
+        <v>7531.2110949999997</v>
       </c>
       <c r="BO19" s="1">
-        <v>2.092003</v>
+        <v>2.0920030000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1205.130000</v>
+        <v>1205.1300000000001</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-494.646000</v>
+        <v>-494.64600000000002</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>7542.427128</v>
+        <v>7542.4271280000003</v>
       </c>
       <c r="BT19" s="1">
         <v>2.095119</v>
       </c>
       <c r="BU19" s="1">
-        <v>1325.220000</v>
+        <v>1325.22</v>
       </c>
       <c r="BV19" s="1">
-        <v>-698.306000</v>
+        <v>-698.30600000000004</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>7553.553385</v>
+        <v>7553.5533850000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>2.098209</v>
+        <v>2.0982090000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1460.100000</v>
+        <v>1460.1</v>
       </c>
       <c r="CA19" s="1">
-        <v>-915.988000</v>
+        <v>-915.98800000000006</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>7566.099689</v>
+        <v>7566.0996889999997</v>
       </c>
       <c r="CD19" s="1">
-        <v>2.101694</v>
+        <v>2.1016940000000002</v>
       </c>
       <c r="CE19" s="1">
-        <v>1818.120000</v>
+        <v>1818.12</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1433.420000</v>
+        <v>-1433.42</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>7393.975867</v>
+        <v>7393.9758670000001</v>
       </c>
       <c r="B20" s="1">
-        <v>2.053882</v>
+        <v>2.0538820000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>895.529000</v>
+        <v>895.529</v>
       </c>
       <c r="D20" s="1">
-        <v>-195.696000</v>
+        <v>-195.696</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>7404.414351</v>
+        <v>7404.4143510000004</v>
       </c>
       <c r="G20" s="1">
-        <v>2.056782</v>
+        <v>2.0567820000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>914.404000</v>
+        <v>914.404</v>
       </c>
       <c r="I20" s="1">
-        <v>-166.785000</v>
+        <v>-166.785</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>7415.258352</v>
+        <v>7415.2583519999998</v>
       </c>
       <c r="L20" s="1">
-        <v>2.059794</v>
+        <v>2.0597940000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>938.348000</v>
+        <v>938.34799999999996</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.777000</v>
+        <v>-118.777</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>7425.503752</v>
+        <v>7425.5037519999996</v>
       </c>
       <c r="Q20" s="1">
-        <v>2.062640</v>
+        <v>2.06264</v>
       </c>
       <c r="R20" s="1">
-        <v>945.454000</v>
+        <v>945.45399999999995</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.814000</v>
+        <v>-102.81399999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>7435.633509</v>
+        <v>7435.6335090000002</v>
       </c>
       <c r="V20" s="1">
-        <v>2.065454</v>
+        <v>2.0654539999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>952.094000</v>
+        <v>952.09400000000005</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.049600</v>
+        <v>-88.049599999999998</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>7445.867496</v>
+        <v>7445.8674959999998</v>
       </c>
       <c r="AA20" s="1">
-        <v>2.068297</v>
+        <v>2.0682969999999998</v>
       </c>
       <c r="AB20" s="1">
-        <v>959.465000</v>
+        <v>959.46500000000003</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.276400</v>
+        <v>-76.276399999999995</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>7456.019578</v>
+        <v>7456.0195780000004</v>
       </c>
       <c r="AF20" s="1">
-        <v>2.071117</v>
+        <v>2.0711170000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>964.291000</v>
+        <v>964.29100000000005</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.215100</v>
+        <v>-74.215100000000007</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>7466.226749</v>
+        <v>7466.2267490000004</v>
       </c>
       <c r="AK20" s="1">
-        <v>2.073952</v>
+        <v>2.0739519999999998</v>
       </c>
       <c r="AL20" s="1">
-        <v>971.493000</v>
+        <v>971.49300000000005</v>
       </c>
       <c r="AM20" s="1">
-        <v>-78.768200</v>
+        <v>-78.768199999999993</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>7477.114926</v>
+        <v>7477.1149260000002</v>
       </c>
       <c r="AP20" s="1">
-        <v>2.076976</v>
+        <v>2.0769760000000002</v>
       </c>
       <c r="AQ20" s="1">
-        <v>979.500000</v>
+        <v>979.5</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.082900</v>
+        <v>-90.082899999999995</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>7488.138049</v>
+        <v>7488.1380490000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>2.080038</v>
+        <v>2.0800380000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>989.191000</v>
+        <v>989.19100000000003</v>
       </c>
       <c r="AW20" s="1">
-        <v>-107.391000</v>
+        <v>-107.39100000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>7499.168547</v>
+        <v>7499.1685470000002</v>
       </c>
       <c r="AZ20" s="1">
-        <v>2.083102</v>
+        <v>2.0831019999999998</v>
       </c>
       <c r="BA20" s="1">
-        <v>997.325000</v>
+        <v>997.32500000000005</v>
       </c>
       <c r="BB20" s="1">
-        <v>-122.699000</v>
+        <v>-122.699</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>7510.149064</v>
+        <v>7510.1490640000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>2.086153</v>
+        <v>2.0861529999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1034.900000</v>
+        <v>1034.9000000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-193.737000</v>
+        <v>-193.73699999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>7521.095685</v>
+        <v>7521.0956850000002</v>
       </c>
       <c r="BJ20" s="1">
-        <v>2.089193</v>
+        <v>2.0891929999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1099.510000</v>
+        <v>1099.51</v>
       </c>
       <c r="BL20" s="1">
-        <v>-309.903000</v>
+        <v>-309.90300000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>7531.600951</v>
+        <v>7531.6009510000004</v>
       </c>
       <c r="BO20" s="1">
-        <v>2.092111</v>
+        <v>2.0921110000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1205.100000</v>
+        <v>1205.0999999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-494.685000</v>
+        <v>-494.685</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>7542.841288</v>
+        <v>7542.8412879999996</v>
       </c>
       <c r="BT20" s="1">
         <v>2.095234</v>
       </c>
       <c r="BU20" s="1">
-        <v>1325.290000</v>
+        <v>1325.29</v>
       </c>
       <c r="BV20" s="1">
-        <v>-698.290000</v>
+        <v>-698.29</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>7553.973993</v>
+        <v>7553.9739929999996</v>
       </c>
       <c r="BY20" s="1">
-        <v>2.098326</v>
+        <v>2.0983260000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1459.930000</v>
+        <v>1459.93</v>
       </c>
       <c r="CA20" s="1">
-        <v>-915.915000</v>
+        <v>-915.91499999999996</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>7566.616056</v>
+        <v>7566.6160559999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>2.101838</v>
+        <v>2.1018379999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1817.180000</v>
+        <v>1817.18</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1432.540000</v>
+        <v>-1432.54</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>7394.659500</v>
+        <v>7394.6594999999998</v>
       </c>
       <c r="B21" s="1">
-        <v>2.054072</v>
+        <v>2.0540720000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>895.541000</v>
+        <v>895.54100000000005</v>
       </c>
       <c r="D21" s="1">
-        <v>-195.373000</v>
+        <v>-195.37299999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>7405.102797</v>
+        <v>7405.1027969999996</v>
       </c>
       <c r="G21" s="1">
-        <v>2.056973</v>
+        <v>2.0569730000000002</v>
       </c>
       <c r="H21" s="1">
-        <v>914.200000</v>
+        <v>914.2</v>
       </c>
       <c r="I21" s="1">
-        <v>-166.502000</v>
+        <v>-166.50200000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>7415.603601</v>
+        <v>7415.6036009999998</v>
       </c>
       <c r="L21" s="1">
-        <v>2.059890</v>
+        <v>2.0598900000000002</v>
       </c>
       <c r="M21" s="1">
-        <v>938.377000</v>
+        <v>938.37699999999995</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.794000</v>
+        <v>-118.794</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>7425.850418</v>
       </c>
       <c r="Q21" s="1">
-        <v>2.062736</v>
+        <v>2.0627360000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>945.433000</v>
+        <v>945.43299999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.829000</v>
+        <v>-102.82899999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>7435.977269</v>
       </c>
       <c r="V21" s="1">
-        <v>2.065549</v>
+        <v>2.0655489999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>952.193000</v>
+        <v>952.19299999999998</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.055700</v>
+        <v>-88.055700000000002</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>7446.518712</v>
+        <v>7446.5187120000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>2.068477</v>
+        <v>2.0684770000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>959.474000</v>
+        <v>959.47400000000005</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.449100</v>
+        <v>-76.449100000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>7456.664874</v>
+        <v>7456.6648740000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>2.071296</v>
+        <v>2.0712959999999998</v>
       </c>
       <c r="AG21" s="1">
-        <v>964.252000</v>
+        <v>964.25199999999995</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.205300</v>
+        <v>-74.205299999999994</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>7466.610157</v>
+        <v>7466.6101570000001</v>
       </c>
       <c r="AK21" s="1">
         <v>2.074058</v>
       </c>
       <c r="AL21" s="1">
-        <v>971.474000</v>
+        <v>971.47400000000005</v>
       </c>
       <c r="AM21" s="1">
-        <v>-78.775300</v>
+        <v>-78.775300000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>7477.533091</v>
+        <v>7477.5330910000002</v>
       </c>
       <c r="AP21" s="1">
-        <v>2.077093</v>
+        <v>2.0770930000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>979.483000</v>
+        <v>979.48299999999995</v>
       </c>
       <c r="AR21" s="1">
-        <v>-90.079300</v>
+        <v>-90.079300000000003</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>7488.502112</v>
+        <v>7488.5021120000001</v>
       </c>
       <c r="AU21" s="1">
         <v>2.080139</v>
       </c>
       <c r="AV21" s="1">
-        <v>989.171000</v>
+        <v>989.17100000000005</v>
       </c>
       <c r="AW21" s="1">
-        <v>-107.404000</v>
+        <v>-107.404</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>7499.522722</v>
+        <v>7499.5227219999997</v>
       </c>
       <c r="AZ21" s="1">
-        <v>2.083201</v>
+        <v>2.0832009999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>997.314000</v>
+        <v>997.31399999999996</v>
       </c>
       <c r="BB21" s="1">
-        <v>-122.742000</v>
+        <v>-122.742</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>7510.507586</v>
+        <v>7510.5075859999997</v>
       </c>
       <c r="BE21" s="1">
         <v>2.086252</v>
       </c>
       <c r="BF21" s="1">
-        <v>1034.920000</v>
+        <v>1034.92</v>
       </c>
       <c r="BG21" s="1">
-        <v>-193.714000</v>
+        <v>-193.714</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>7521.509844</v>
+        <v>7521.5098440000002</v>
       </c>
       <c r="BJ21" s="1">
-        <v>2.089308</v>
+        <v>2.0893079999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1099.540000</v>
+        <v>1099.54</v>
       </c>
       <c r="BL21" s="1">
-        <v>-309.895000</v>
+        <v>-309.89499999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>7532.422327</v>
+        <v>7532.4223270000002</v>
       </c>
       <c r="BO21" s="1">
-        <v>2.092340</v>
+        <v>2.0923400000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1205.110000</v>
+        <v>1205.1099999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-494.639000</v>
+        <v>-494.63900000000001</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>7543.270327</v>
+        <v>7543.2703270000002</v>
       </c>
       <c r="BT21" s="1">
-        <v>2.095353</v>
+        <v>2.0953529999999998</v>
       </c>
       <c r="BU21" s="1">
-        <v>1325.180000</v>
+        <v>1325.18</v>
       </c>
       <c r="BV21" s="1">
-        <v>-698.276000</v>
+        <v>-698.27599999999995</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>7554.399096</v>
+        <v>7554.3990960000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>2.098444</v>
+        <v>2.0984440000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1460.060000</v>
+        <v>1460.06</v>
       </c>
       <c r="CA21" s="1">
-        <v>-916.051000</v>
+        <v>-916.05100000000004</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>7567.136824</v>
+        <v>7567.1368240000002</v>
       </c>
       <c r="CD21" s="1">
         <v>2.101982</v>
       </c>
       <c r="CE21" s="1">
-        <v>1817.100000</v>
+        <v>1817.1</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1434.820000</v>
+        <v>-1434.82</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>7395.007195</v>
+        <v>7395.0071950000001</v>
       </c>
       <c r="B22" s="1">
-        <v>2.054169</v>
+        <v>2.0541689999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>895.691000</v>
+        <v>895.69100000000003</v>
       </c>
       <c r="D22" s="1">
-        <v>-195.561000</v>
+        <v>-195.56100000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>7405.449502</v>
+        <v>7405.4495020000004</v>
       </c>
       <c r="G22" s="1">
-        <v>2.057069</v>
+        <v>2.0570689999999998</v>
       </c>
       <c r="H22" s="1">
-        <v>914.328000</v>
+        <v>914.32799999999997</v>
       </c>
       <c r="I22" s="1">
-        <v>-166.517000</v>
+        <v>-166.517</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>7415.950304</v>
       </c>
       <c r="L22" s="1">
-        <v>2.059986</v>
+        <v>2.0599859999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>938.665000</v>
+        <v>938.66499999999996</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.022000</v>
+        <v>-119.02200000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>7426.202082</v>
+        <v>7426.2020819999998</v>
       </c>
       <c r="Q22" s="1">
-        <v>2.062834</v>
+        <v>2.0628340000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>945.434000</v>
+        <v>945.43399999999997</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.770000</v>
+        <v>-102.77</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>7436.629972</v>
+        <v>7436.6299719999997</v>
       </c>
       <c r="V22" s="1">
         <v>2.065731</v>
       </c>
       <c r="W22" s="1">
-        <v>952.128000</v>
+        <v>952.12800000000004</v>
       </c>
       <c r="X22" s="1">
-        <v>-87.997600</v>
+        <v>-87.997600000000006</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>7446.912534</v>
+        <v>7446.9125340000001</v>
       </c>
       <c r="AA22" s="1">
         <v>2.068587</v>
       </c>
       <c r="AB22" s="1">
-        <v>959.509000</v>
+        <v>959.50900000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.088100</v>
+        <v>-76.088099999999997</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>7457.051753</v>
+        <v>7457.0517529999997</v>
       </c>
       <c r="AF22" s="1">
-        <v>2.071403</v>
+        <v>2.0714030000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>964.256000</v>
+        <v>964.25599999999997</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.229400</v>
+        <v>-74.229399999999998</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>7466.959836</v>
       </c>
       <c r="AK22" s="1">
-        <v>2.074156</v>
+        <v>2.0741559999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>971.486000</v>
+        <v>971.48599999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-78.754500</v>
+        <v>-78.754499999999993</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>7477.913486</v>
+        <v>7477.9134860000004</v>
       </c>
       <c r="AP22" s="1">
-        <v>2.077198</v>
+        <v>2.0771980000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>979.493000</v>
+        <v>979.49300000000005</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.063700</v>
+        <v>-90.063699999999997</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>7488.866144</v>
+        <v>7488.8661439999996</v>
       </c>
       <c r="AU22" s="1">
         <v>2.080241</v>
       </c>
       <c r="AV22" s="1">
-        <v>989.204000</v>
+        <v>989.20399999999995</v>
       </c>
       <c r="AW22" s="1">
-        <v>-107.366000</v>
+        <v>-107.366</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>7499.935856</v>
+        <v>7499.9358560000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>2.083316</v>
+        <v>2.0833159999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>997.327000</v>
+        <v>997.327</v>
       </c>
       <c r="BB22" s="1">
-        <v>-122.716000</v>
+        <v>-122.71599999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>7510.920787</v>
       </c>
       <c r="BE22" s="1">
-        <v>2.086367</v>
+        <v>2.0863670000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1034.920000</v>
+        <v>1034.92</v>
       </c>
       <c r="BG22" s="1">
-        <v>-193.725000</v>
+        <v>-193.72499999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>7521.867459</v>
+        <v>7521.8674590000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>2.089408</v>
+        <v>2.0894080000000002</v>
       </c>
       <c r="BK22" s="1">
-        <v>1099.480000</v>
+        <v>1099.48</v>
       </c>
       <c r="BL22" s="1">
-        <v>-309.900000</v>
+        <v>-309.89999999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>7532.836517</v>
+        <v>7532.8365169999997</v>
       </c>
       <c r="BO22" s="1">
-        <v>2.092455</v>
+        <v>2.0924550000000002</v>
       </c>
       <c r="BP22" s="1">
-        <v>1205.100000</v>
+        <v>1205.0999999999999</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-494.642000</v>
+        <v>-494.642</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>7543.698871</v>
+        <v>7543.6988709999996</v>
       </c>
       <c r="BT22" s="1">
         <v>2.095472</v>
       </c>
       <c r="BU22" s="1">
-        <v>1325.250000</v>
+        <v>1325.25</v>
       </c>
       <c r="BV22" s="1">
-        <v>-698.282000</v>
+        <v>-698.28200000000004</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>7554.816696</v>
+        <v>7554.8166959999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>2.098560</v>
+        <v>2.09856</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1460.050000</v>
+        <v>1460.05</v>
       </c>
       <c r="CA22" s="1">
-        <v>-915.937000</v>
+        <v>-915.93700000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>7567.677184</v>
+        <v>7567.6771840000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>2.102133</v>
+        <v>2.1021329999999998</v>
       </c>
       <c r="CE22" s="1">
-        <v>1817.830000</v>
+        <v>1817.83</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1433.040000</v>
+        <v>-1433.04</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>7395.349468</v>
+        <v>7395.3494680000003</v>
       </c>
       <c r="B23" s="1">
-        <v>2.054264</v>
+        <v>2.0542639999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>895.547000</v>
+        <v>895.54700000000003</v>
       </c>
       <c r="D23" s="1">
-        <v>-195.634000</v>
+        <v>-195.63399999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>7405.794190</v>
+        <v>7405.7941899999996</v>
       </c>
       <c r="G23" s="1">
-        <v>2.057165</v>
+        <v>2.0571649999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>914.484000</v>
+        <v>914.48400000000004</v>
       </c>
       <c r="I23" s="1">
-        <v>-166.452000</v>
+        <v>-166.452</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>7416.610974</v>
+        <v>7416.6109740000002</v>
       </c>
       <c r="L23" s="1">
-        <v>2.060170</v>
+        <v>2.0601699999999998</v>
       </c>
       <c r="M23" s="1">
-        <v>938.273000</v>
+        <v>938.27300000000002</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.946000</v>
+        <v>-118.946</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>7426.859282</v>
+        <v>7426.8592820000003</v>
       </c>
       <c r="Q23" s="1">
-        <v>2.063016</v>
+        <v>2.0630160000000002</v>
       </c>
       <c r="R23" s="1">
-        <v>945.432000</v>
+        <v>945.43200000000002</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.762000</v>
+        <v>-102.762</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>7437.008420</v>
+        <v>7437.0084200000001</v>
       </c>
       <c r="V23" s="1">
         <v>2.065836</v>
       </c>
       <c r="W23" s="1">
-        <v>952.069000</v>
+        <v>952.06899999999996</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.089700</v>
+        <v>-88.089699999999993</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>7447.263238</v>
+        <v>7447.2632379999995</v>
       </c>
       <c r="AA23" s="1">
-        <v>2.068684</v>
+        <v>2.0686840000000002</v>
       </c>
       <c r="AB23" s="1">
-        <v>959.475000</v>
+        <v>959.47500000000002</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.325400</v>
+        <v>-76.325400000000002</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>7457.392008</v>
+        <v>7457.3920079999998</v>
       </c>
       <c r="AF23" s="1">
-        <v>2.071498</v>
+        <v>2.0714980000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>964.263000</v>
+        <v>964.26300000000003</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.241400</v>
+        <v>-74.241399999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>7467.308560</v>
+        <v>7467.3085600000004</v>
       </c>
       <c r="AK23" s="1">
         <v>2.074252</v>
       </c>
       <c r="AL23" s="1">
-        <v>971.490000</v>
+        <v>971.49</v>
       </c>
       <c r="AM23" s="1">
-        <v>-78.734600</v>
+        <v>-78.7346</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>7478.274077</v>
       </c>
       <c r="AP23" s="1">
-        <v>2.077298</v>
+        <v>2.0772979999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>979.507000</v>
+        <v>979.50699999999995</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.056700</v>
+        <v>-90.056700000000006</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>7489.274881</v>
+        <v>7489.2748810000003</v>
       </c>
       <c r="AU23" s="1">
-        <v>2.080354</v>
+        <v>2.0803539999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>989.204000</v>
+        <v>989.20399999999995</v>
       </c>
       <c r="AW23" s="1">
-        <v>-107.376000</v>
+        <v>-107.376</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>7500.241424</v>
+        <v>7500.2414239999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>2.083400</v>
+        <v>2.0834000000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>997.306000</v>
+        <v>997.30600000000004</v>
       </c>
       <c r="BB23" s="1">
-        <v>-122.721000</v>
+        <v>-122.721</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>7511.232135</v>
+        <v>7511.2321350000002</v>
       </c>
       <c r="BE23" s="1">
-        <v>2.086453</v>
+        <v>2.0864530000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1034.890000</v>
+        <v>1034.8900000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-193.702000</v>
+        <v>-193.702</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>7522.243463</v>
+        <v>7522.2434629999998</v>
       </c>
       <c r="BJ23" s="1">
         <v>2.089512</v>
       </c>
       <c r="BK23" s="1">
-        <v>1099.540000</v>
+        <v>1099.54</v>
       </c>
       <c r="BL23" s="1">
-        <v>-309.907000</v>
+        <v>-309.90699999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>7533.237285</v>
+        <v>7533.2372850000002</v>
       </c>
       <c r="BO23" s="1">
-        <v>2.092566</v>
+        <v>2.0925660000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1205.100000</v>
+        <v>1205.0999999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-494.646000</v>
+        <v>-494.64600000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>7544.106118</v>
+        <v>7544.1061179999997</v>
       </c>
       <c r="BT23" s="1">
-        <v>2.095585</v>
+        <v>2.0955849999999998</v>
       </c>
       <c r="BU23" s="1">
-        <v>1325.220000</v>
+        <v>1325.22</v>
       </c>
       <c r="BV23" s="1">
-        <v>-698.269000</v>
+        <v>-698.26900000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>7555.272520</v>
+        <v>7555.2725200000004</v>
       </c>
       <c r="BY23" s="1">
         <v>2.098687</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1459.950000</v>
+        <v>1459.95</v>
       </c>
       <c r="CA23" s="1">
-        <v>-915.928000</v>
+        <v>-915.928</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>7568.218102</v>
+        <v>7568.2181019999998</v>
       </c>
       <c r="CD23" s="1">
-        <v>2.102283</v>
+        <v>2.1022829999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1816.650000</v>
+        <v>1816.65</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1433.560000</v>
+        <v>-1433.56</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>7395.999195</v>
+        <v>7395.9991950000003</v>
       </c>
       <c r="B24" s="1">
-        <v>2.054444</v>
+        <v>2.0544440000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>895.736000</v>
+        <v>895.73599999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-195.475000</v>
+        <v>-195.47499999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>7406.443949</v>
+        <v>7406.4439490000004</v>
       </c>
       <c r="G24" s="1">
-        <v>2.057346</v>
+        <v>2.0573459999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>913.930000</v>
+        <v>913.93</v>
       </c>
       <c r="I24" s="1">
-        <v>-166.694000</v>
+        <v>-166.69399999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>7416.989390</v>
+        <v>7416.9893899999997</v>
       </c>
       <c r="L24" s="1">
-        <v>2.060275</v>
+        <v>2.0602749999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>938.249000</v>
+        <v>938.24900000000002</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.843000</v>
+        <v>-118.843</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>7427.242689</v>
+        <v>7427.2426889999997</v>
       </c>
       <c r="Q24" s="1">
         <v>2.063123</v>
       </c>
       <c r="R24" s="1">
-        <v>945.447000</v>
+        <v>945.447</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.793000</v>
+        <v>-102.79300000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>7437.351651</v>
+        <v>7437.3516509999999</v>
       </c>
       <c r="V24" s="1">
         <v>2.065931</v>
       </c>
       <c r="W24" s="1">
-        <v>952.076000</v>
+        <v>952.07600000000002</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.163300</v>
+        <v>-88.163300000000007</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>7447.611397</v>
+        <v>7447.6113969999997</v>
       </c>
       <c r="AA24" s="1">
         <v>2.068781</v>
       </c>
       <c r="AB24" s="1">
-        <v>959.414000</v>
+        <v>959.41399999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.332100</v>
+        <v>-76.332099999999997</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>7457.737720</v>
+        <v>7457.7377200000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>2.071594</v>
+        <v>2.0715940000000002</v>
       </c>
       <c r="AG24" s="1">
-        <v>964.257000</v>
+        <v>964.25699999999995</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.230300</v>
+        <v>-74.2303</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>7467.719434</v>
+        <v>7467.7194339999996</v>
       </c>
       <c r="AK24" s="1">
-        <v>2.074367</v>
+        <v>2.0743670000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>971.479000</v>
+        <v>971.47900000000004</v>
       </c>
       <c r="AM24" s="1">
-        <v>-78.769600</v>
+        <v>-78.769599999999997</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>7478.687740</v>
+        <v>7478.6877400000003</v>
       </c>
       <c r="AP24" s="1">
         <v>2.077413</v>
       </c>
       <c r="AQ24" s="1">
-        <v>979.499000</v>
+        <v>979.49900000000002</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.070200</v>
+        <v>-90.0702</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>7489.596292</v>
+        <v>7489.5962920000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>2.080443</v>
+        <v>2.0804429999999998</v>
       </c>
       <c r="AV24" s="1">
-        <v>989.185000</v>
+        <v>989.18499999999995</v>
       </c>
       <c r="AW24" s="1">
-        <v>-107.400000</v>
+        <v>-107.4</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>7500.600509</v>
+        <v>7500.6005089999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>2.083500</v>
+        <v>2.0834999999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>997.312000</v>
+        <v>997.31200000000001</v>
       </c>
       <c r="BB24" s="1">
-        <v>-122.699000</v>
+        <v>-122.699</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>7511.593366</v>
+        <v>7511.5933660000001</v>
       </c>
       <c r="BE24" s="1">
         <v>2.086554</v>
       </c>
       <c r="BF24" s="1">
-        <v>1034.910000</v>
+        <v>1034.9100000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-193.725000</v>
+        <v>-193.72499999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>7522.617412</v>
+        <v>7522.6174119999996</v>
       </c>
       <c r="BJ24" s="1">
-        <v>2.089616</v>
+        <v>2.0896159999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1099.510000</v>
+        <v>1099.51</v>
       </c>
       <c r="BL24" s="1">
-        <v>-309.902000</v>
+        <v>-309.90199999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>7533.660340</v>
+        <v>7533.6603400000004</v>
       </c>
       <c r="BO24" s="1">
-        <v>2.092683</v>
+        <v>2.0926830000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1205.120000</v>
+        <v>1205.1199999999999</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-494.638000</v>
+        <v>-494.63799999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>7544.539591</v>
+        <v>7544.5395909999997</v>
       </c>
       <c r="BT24" s="1">
-        <v>2.095705</v>
+        <v>2.0957050000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>1325.280000</v>
+        <v>1325.28</v>
       </c>
       <c r="BV24" s="1">
-        <v>-698.176000</v>
+        <v>-698.17600000000004</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>7555.719415</v>
+        <v>7555.7194149999996</v>
       </c>
       <c r="BY24" s="1">
         <v>2.098811</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1459.910000</v>
+        <v>1459.91</v>
       </c>
       <c r="CA24" s="1">
-        <v>-916.044000</v>
+        <v>-916.04399999999998</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>7568.757749</v>
+        <v>7568.7577490000003</v>
       </c>
       <c r="CD24" s="1">
         <v>2.102433</v>
       </c>
       <c r="CE24" s="1">
-        <v>1817.940000</v>
+        <v>1817.94</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1434.360000</v>
+        <v>-1434.36</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>7396.373673</v>
+        <v>7396.3736730000001</v>
       </c>
       <c r="B25" s="1">
         <v>2.054548</v>
       </c>
       <c r="C25" s="1">
-        <v>895.844000</v>
+        <v>895.84400000000005</v>
       </c>
       <c r="D25" s="1">
-        <v>-195.400000</v>
+        <v>-195.4</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>7406.828871</v>
+        <v>7406.8288709999997</v>
       </c>
       <c r="G25" s="1">
-        <v>2.057452</v>
+        <v>2.0574520000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>913.856000</v>
+        <v>913.85599999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-166.329000</v>
+        <v>-166.32900000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>7417.331631</v>
       </c>
       <c r="L25" s="1">
-        <v>2.060370</v>
+        <v>2.0603699999999998</v>
       </c>
       <c r="M25" s="1">
-        <v>938.277000</v>
+        <v>938.27700000000004</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.766000</v>
+        <v>-118.76600000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>7427.595841</v>
+        <v>7427.5958410000003</v>
       </c>
       <c r="Q25" s="1">
         <v>2.063221</v>
       </c>
       <c r="R25" s="1">
-        <v>945.448000</v>
+        <v>945.44799999999998</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.824000</v>
+        <v>-102.824</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>7437.695888</v>
+        <v>7437.6958880000002</v>
       </c>
       <c r="V25" s="1">
-        <v>2.066027</v>
+        <v>2.0660270000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>952.099000</v>
+        <v>952.09900000000005</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.129500</v>
+        <v>-88.129499999999993</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>7448.025061</v>
+        <v>7448.0250610000003</v>
       </c>
       <c r="AA25" s="1">
-        <v>2.068896</v>
+        <v>2.0688960000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>959.457000</v>
+        <v>959.45699999999999</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.371800</v>
+        <v>-76.371799999999993</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>7458.153512</v>
+        <v>7458.1535119999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>2.071709</v>
+        <v>2.0717089999999998</v>
       </c>
       <c r="AG25" s="1">
-        <v>964.251000</v>
+        <v>964.25099999999998</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.206100</v>
+        <v>-74.206100000000006</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>7468.012842</v>
+        <v>7468.0128420000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>2.074448</v>
+        <v>2.0744479999999998</v>
       </c>
       <c r="AL25" s="1">
-        <v>971.479000</v>
+        <v>971.47900000000004</v>
       </c>
       <c r="AM25" s="1">
-        <v>-78.760200</v>
+        <v>-78.760199999999998</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>7478.995260</v>
+        <v>7478.9952599999997</v>
       </c>
       <c r="AP25" s="1">
         <v>2.077499</v>
       </c>
       <c r="AQ25" s="1">
-        <v>979.490000</v>
+        <v>979.49</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.083300</v>
+        <v>-90.083299999999994</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>7489.959363</v>
+        <v>7489.9593629999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>2.080544</v>
+        <v>2.0805440000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>989.195000</v>
+        <v>989.19500000000005</v>
       </c>
       <c r="AW25" s="1">
-        <v>-107.368000</v>
+        <v>-107.36799999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>7500.959135</v>
+        <v>7500.9591350000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>2.083600</v>
+        <v>2.0836000000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>997.302000</v>
+        <v>997.30200000000002</v>
       </c>
       <c r="BB25" s="1">
-        <v>-122.760000</v>
+        <v>-122.76</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>7511.955410</v>
+        <v>7511.9554099999996</v>
       </c>
       <c r="BE25" s="1">
-        <v>2.086654</v>
+        <v>2.0866539999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1034.890000</v>
+        <v>1034.8900000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-193.735000</v>
+        <v>-193.73500000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>7523.367394</v>
+        <v>7523.3673939999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>2.089824</v>
+        <v>2.0898240000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1099.510000</v>
+        <v>1099.51</v>
       </c>
       <c r="BL25" s="1">
-        <v>-309.892000</v>
+        <v>-309.892</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>7534.056644</v>
+        <v>7534.0566440000002</v>
       </c>
       <c r="BO25" s="1">
         <v>2.092794</v>
       </c>
       <c r="BP25" s="1">
-        <v>1205.110000</v>
+        <v>1205.1099999999999</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-494.640000</v>
+        <v>-494.64</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>7544.967173</v>
       </c>
       <c r="BT25" s="1">
-        <v>2.095824</v>
+        <v>2.0958239999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1325.230000</v>
+        <v>1325.23</v>
       </c>
       <c r="BV25" s="1">
-        <v>-698.194000</v>
+        <v>-698.19399999999996</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>7556.142006</v>
       </c>
       <c r="BY25" s="1">
-        <v>2.098928</v>
+        <v>2.0989279999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1460.050000</v>
+        <v>1460.05</v>
       </c>
       <c r="CA25" s="1">
-        <v>-915.882000</v>
+        <v>-915.88199999999995</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>7569.601940</v>
+        <v>7569.6019399999996</v>
       </c>
       <c r="CD25" s="1">
-        <v>2.102667</v>
+        <v>2.1026669999999998</v>
       </c>
       <c r="CE25" s="1">
-        <v>1816.710000</v>
+        <v>1816.71</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1434.090000</v>
+        <v>-1434.09</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>7396.717898</v>
+        <v>7396.7178979999999</v>
       </c>
       <c r="B26" s="1">
-        <v>2.054644</v>
+        <v>2.0546440000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>895.675000</v>
+        <v>895.67499999999995</v>
       </c>
       <c r="D26" s="1">
-        <v>-195.831000</v>
+        <v>-195.83099999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>7407.173563</v>
+        <v>7407.1735630000003</v>
       </c>
       <c r="G26" s="1">
-        <v>2.057548</v>
+        <v>2.0575480000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>914.083000</v>
+        <v>914.08299999999997</v>
       </c>
       <c r="I26" s="1">
-        <v>-166.411000</v>
+        <v>-166.411</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>7417.679821</v>
+        <v>7417.6798209999997</v>
       </c>
       <c r="L26" s="1">
         <v>2.060467</v>
       </c>
       <c r="M26" s="1">
-        <v>938.273000</v>
+        <v>938.27300000000002</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.865000</v>
+        <v>-118.86499999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>7428.179665</v>
+        <v>7428.1796649999997</v>
       </c>
       <c r="Q26" s="1">
         <v>2.063383</v>
       </c>
       <c r="R26" s="1">
-        <v>945.435000</v>
+        <v>945.43499999999995</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.801000</v>
+        <v>-102.801</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>7438.112020</v>
+        <v>7438.1120199999996</v>
       </c>
       <c r="V26" s="1">
-        <v>2.066142</v>
+        <v>2.0661420000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>952.189000</v>
+        <v>952.18899999999996</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.099800</v>
+        <v>-88.099800000000002</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>7448.308277</v>
+        <v>7448.3082770000001</v>
       </c>
       <c r="AA26" s="1">
         <v>2.068975</v>
       </c>
       <c r="AB26" s="1">
-        <v>959.458000</v>
+        <v>959.45799999999997</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.342100</v>
+        <v>-76.342100000000002</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>7458.449479</v>
+        <v>7458.4494789999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>2.071792</v>
+        <v>2.0717919999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>964.287000</v>
+        <v>964.28700000000003</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.241600</v>
+        <v>-74.241600000000005</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>7468.363514</v>
+        <v>7468.3635139999997</v>
       </c>
       <c r="AK26" s="1">
-        <v>2.074545</v>
+        <v>2.0745450000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>971.474000</v>
+        <v>971.47400000000005</v>
       </c>
       <c r="AM26" s="1">
-        <v>-78.753700</v>
+        <v>-78.753699999999995</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>7479.353904</v>
+        <v>7479.3539039999996</v>
       </c>
       <c r="AP26" s="1">
-        <v>2.077598</v>
+        <v>2.0775980000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>979.487000</v>
+        <v>979.48699999999997</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.080200</v>
+        <v>-90.080200000000005</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>7490.325869</v>
+        <v>7490.3258690000002</v>
       </c>
       <c r="AU26" s="1">
-        <v>2.080646</v>
+        <v>2.0806460000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>989.198000</v>
+        <v>989.19799999999998</v>
       </c>
       <c r="AW26" s="1">
-        <v>-107.358000</v>
+        <v>-107.358</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>7501.678798</v>
+        <v>7501.6787979999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>2.083800</v>
+        <v>2.0838000000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>997.327000</v>
+        <v>997.327</v>
       </c>
       <c r="BB26" s="1">
-        <v>-122.707000</v>
+        <v>-122.70699999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>7512.677584</v>
       </c>
       <c r="BE26" s="1">
-        <v>2.086855</v>
+        <v>2.0868549999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1034.900000</v>
+        <v>1034.9000000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-193.721000</v>
+        <v>-193.721</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>7523.746312</v>
+        <v>7523.7463120000002</v>
       </c>
       <c r="BJ26" s="1">
-        <v>2.089930</v>
+        <v>2.0899299999999998</v>
       </c>
       <c r="BK26" s="1">
-        <v>1099.540000</v>
+        <v>1099.54</v>
       </c>
       <c r="BL26" s="1">
-        <v>-309.895000</v>
+        <v>-309.89499999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>7534.477251</v>
+        <v>7534.4772510000003</v>
       </c>
       <c r="BO26" s="1">
-        <v>2.092910</v>
+        <v>2.0929099999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1205.130000</v>
+        <v>1205.1300000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-494.657000</v>
+        <v>-494.65699999999998</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>7545.378335</v>
+        <v>7545.3783350000003</v>
       </c>
       <c r="BT26" s="1">
-        <v>2.095938</v>
+        <v>2.0959379999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1325.180000</v>
+        <v>1325.18</v>
       </c>
       <c r="BV26" s="1">
-        <v>-698.178000</v>
+        <v>-698.178</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>7556.864182</v>
+        <v>7556.8641820000003</v>
       </c>
       <c r="BY26" s="1">
         <v>2.099129</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1459.940000</v>
+        <v>1459.94</v>
       </c>
       <c r="CA26" s="1">
-        <v>-915.950000</v>
+        <v>-915.95</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>7569.835589</v>
+        <v>7569.8355890000003</v>
       </c>
       <c r="CD26" s="1">
         <v>2.102732</v>
       </c>
       <c r="CE26" s="1">
-        <v>1816.660000</v>
+        <v>1816.66</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1434.350000</v>
+        <v>-1434.35</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>